--- a/measure_types/nidaq/xls/test1.xlsx
+++ b/measure_types/nidaq/xls/test1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="4200" windowWidth="19035" windowHeight="4545"/>
+    <workbookView xWindow="1455" yWindow="990" windowWidth="19035" windowHeight="3600"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,43 @@
     <author>thab</author>
   </authors>
   <commentList>
-    <comment ref="D3" authorId="0">
+    <comment ref="E17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Insert a list of frequencies or name of Matlab function that outputs frequency list.
+A frequency list may be: '[15:.1:200]. Don't forget the ' (prime) that tells Excel that
+'[15:.1:200] is a text string for evaluation in Matlab. The frequencies are in Hertz.
+You may provide a Matlab function that gives the frequency array, e.g. </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">freqlist </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">if you have a function called by freqs=freqlist; in the Matlab path.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +113,26 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Give a Matlab function call here to a user supplied function that returns the periodic signal.
+Examples:
+1.
+nidaq_chirp(5,3,350);% Gives a chirp signal with lowest frequency 5Hz swept to 350Hz over 3s.
+2.
+nidaq_noise(5,400,1/51200,3);%Gives a broadband noise signal with cut-on at 5Hz, cut-off at 400Hz using
+samping frequency 51200Hz in a 3s long signal.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Give a Matlab function call here to a user supplied function that returns the periodic signal.
 Examples:
@@ -94,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="236">
   <si>
     <t>Hz</t>
   </si>
@@ -240,9 +295,6 @@
     </r>
   </si>
   <si>
-    <t>Reference channel#:</t>
-  </si>
-  <si>
     <r>
       <t>Repeats</t>
     </r>
@@ -308,91 +360,7 @@
     <t>1. A valid Matlab function name of a function returning data arrays</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">     time and load (i.e. Called by: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>[t,load]=function_name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>Transient Excitation Setup</t>
-  </si>
-  <si>
-    <r>
-      <t>Transient sequence function</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:</t>
-    </r>
-  </si>
-  <si>
-    <t>transdata</t>
-  </si>
-  <si>
-    <r>
-      <t>Recording duration</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:</t>
-    </r>
-  </si>
-  <si>
     <t>[s]</t>
-  </si>
-  <si>
-    <t>2. The duration the transient response will be recorded</t>
   </si>
   <si>
     <t>Logging</t>
@@ -527,9 +495,6 @@
   </si>
   <si>
     <t>Load</t>
-  </si>
-  <si>
-    <t>Brüel&amp;Kjaer</t>
   </si>
   <si>
     <t>With B&amp;K 2647B Charge/IEPE converter</t>
@@ -569,12 +534,6 @@
     <t>Active</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
     <t>Generic</t>
   </si>
   <si>
@@ -664,9 +623,6 @@
     <t>4. Reference channel (recording stimulus) or not (recording response)</t>
   </si>
   <si>
-    <t>4472B</t>
-  </si>
-  <si>
     <t>Ch 5:</t>
   </si>
   <si>
@@ -782,12 +738,6 @@
   </si>
   <si>
     <t>Acc2</t>
-  </si>
-  <si>
-    <t>Acc3</t>
-  </si>
-  <si>
-    <t>Force</t>
   </si>
   <si>
     <t>Periodic Excitation Setup</t>
@@ -943,10 +893,226 @@
     </r>
   </si>
   <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>nidaq_chirp(5,5,350)</t>
+    <t>Triggered Data Recording Setup</t>
+  </si>
+  <si>
+    <r>
+      <t>Recording duration</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>[V]</t>
+  </si>
+  <si>
+    <r>
+      <t>Trigger method</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Trigger evaluation function</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Source strength limit</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>Signal driven</t>
+  </si>
+  <si>
+    <t>External trigger</t>
+  </si>
+  <si>
+    <t>2. A valid Matlab function name of a function returning Triggering option data,</t>
+  </si>
+  <si>
+    <t>3. The duration the data recording (overrun if TrigObj.T is set)</t>
+  </si>
+  <si>
+    <t>4. Source limit for system protection</t>
+  </si>
+  <si>
+    <t>Trigger channel:</t>
+  </si>
+  <si>
+    <t>1. Trigging may be on signal condition (evaluated by the Trigger Evaluation Function)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      or by external program trigger as evaluated by the Trigger Evaluation Function.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">     i.e. Called by: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>TrigObj</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>=function_name</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> See example functions.</t>
+    </r>
+  </si>
+  <si>
+    <t>nidaq_trigger_fcn_template</t>
+  </si>
+  <si>
+    <t>nidaq_chirp(10,5,350)</t>
+  </si>
+  <si>
+    <t>[800:0.5:1400]</t>
+  </si>
+  <si>
+    <t>[500:0.5:800]</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>High freq</t>
+  </si>
+  <si>
+    <t>Mid freq</t>
+  </si>
+  <si>
+    <t>Low freq</t>
+  </si>
+  <si>
+    <t>[15:0.5:70]</t>
+  </si>
+  <si>
+    <t>[30:.2:60 60.25:.25:1000]</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>[20:0.25:800];</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>3224A1</t>
+  </si>
+  <si>
+    <t>Dytran</t>
+  </si>
+  <si>
+    <t>Acc3</t>
   </si>
   <si>
     <t>Acc4</t>
@@ -961,26 +1127,279 @@
     <t>Acc7</t>
   </si>
   <si>
-    <t>[15:.2:350]</t>
+    <t>Acc9</t>
+  </si>
+  <si>
+    <t>Acc10</t>
+  </si>
+  <si>
+    <t>Acc11</t>
+  </si>
+  <si>
+    <t>Acc12</t>
+  </si>
+  <si>
+    <t>Acc13</t>
+  </si>
+  <si>
+    <t>Acc14</t>
+  </si>
+  <si>
+    <t>Acc15</t>
+  </si>
+  <si>
+    <t>Acc17</t>
+  </si>
+  <si>
+    <t>Acc18</t>
+  </si>
+  <si>
+    <t>Acc19</t>
+  </si>
+  <si>
+    <t>Acc20</t>
+  </si>
+  <si>
+    <t>Acc21</t>
+  </si>
+  <si>
+    <t>Acc22</t>
+  </si>
+  <si>
+    <t>Acc23</t>
+  </si>
+  <si>
+    <t>logspace(log10(15),log10(300),250);</t>
+  </si>
+  <si>
+    <t>[50.25:.25:100]</t>
+  </si>
+  <si>
+    <t>[100.5:.5:300]</t>
+  </si>
+  <si>
+    <t>[15:.1:20 20.25:.25:50]</t>
+  </si>
+  <si>
+    <t>[211:0.01:213]</t>
+  </si>
+  <si>
+    <t>nidaq_chirp(15,5,300)</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Coupling</t>
+  </si>
+  <si>
+    <t>m/s^2</t>
+  </si>
+  <si>
+    <t>Brüel &amp; Kjaer</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>352A60</t>
+  </si>
+  <si>
+    <t>352A56</t>
+  </si>
+  <si>
+    <t>352A61</t>
+  </si>
+  <si>
+    <t>352A58</t>
+  </si>
+  <si>
+    <t>352A57</t>
+  </si>
+  <si>
+    <t>352A59</t>
+  </si>
+  <si>
+    <t>356A03</t>
+  </si>
+  <si>
+    <t>168407x</t>
+  </si>
+  <si>
+    <t>168407y</t>
+  </si>
+  <si>
+    <t>168407z</t>
+  </si>
+  <si>
+    <t>168794x</t>
+  </si>
+  <si>
+    <t>168794y</t>
+  </si>
+  <si>
+    <t>168794z</t>
+  </si>
+  <si>
+    <t>168795x</t>
+  </si>
+  <si>
+    <t>168795y</t>
+  </si>
+  <si>
+    <t>168795z</t>
+  </si>
+  <si>
+    <t>168796x</t>
+  </si>
+  <si>
+    <t>168796y</t>
+  </si>
+  <si>
+    <t>168796z</t>
+  </si>
+  <si>
+    <t>168797x</t>
+  </si>
+  <si>
+    <t>168797y</t>
+  </si>
+  <si>
+    <t>168797z</t>
+  </si>
+  <si>
+    <t>170026x</t>
+  </si>
+  <si>
+    <t>170026y</t>
+  </si>
+  <si>
+    <t>170026z</t>
+  </si>
+  <si>
+    <t>170027x</t>
+  </si>
+  <si>
+    <t>170027y</t>
+  </si>
+  <si>
+    <t>170027z</t>
+  </si>
+  <si>
+    <t>170028x</t>
+  </si>
+  <si>
+    <t>170028y</t>
+  </si>
+  <si>
+    <t>170028z</t>
+  </si>
+  <si>
+    <t>170029x</t>
+  </si>
+  <si>
+    <t>170029y</t>
+  </si>
+  <si>
+    <t>170029z</t>
+  </si>
+  <si>
+    <t>170030x</t>
+  </si>
+  <si>
+    <t>170030y</t>
+  </si>
+  <si>
+    <t>170030z</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>0000-00-00</t>
+  </si>
+  <si>
+    <t>Acc1</t>
+  </si>
+  <si>
+    <t>Acc8</t>
+  </si>
+  <si>
+    <t>Acc16</t>
+  </si>
+  <si>
+    <t>Acc24</t>
+  </si>
+  <si>
+    <t>Acc25</t>
+  </si>
+  <si>
+    <t>Acc26</t>
+  </si>
+  <si>
+    <t>Acc27</t>
+  </si>
+  <si>
+    <t>Acc28</t>
+  </si>
+  <si>
+    <t>Acc29</t>
+  </si>
+  <si>
+    <t>Acc30</t>
+  </si>
+  <si>
+    <t>Acc31</t>
+  </si>
+  <si>
+    <t>Acc32</t>
+  </si>
+  <si>
+    <t>Ch 36:</t>
+  </si>
+  <si>
+    <t>Ch 35:</t>
+  </si>
+  <si>
+    <t>Acc33</t>
+  </si>
+  <si>
+    <t>Acc34</t>
+  </si>
+  <si>
+    <t>Ch 37:</t>
+  </si>
+  <si>
+    <t>Ch 38:</t>
+  </si>
+  <si>
+    <t>Acc35</t>
+  </si>
+  <si>
+    <t>Acc36</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.0000E+00"/>
-    <numFmt numFmtId="167" formatCode="0.000E+00"/>
+    <numFmt numFmtId="165" formatCode="0.000E+00"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1062,13 +1481,15 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1120,7 +1541,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1232,31 +1653,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1269,19 +1677,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -1291,25 +1690,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1337,16 +1731,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1361,13 +1746,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1376,7 +1758,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1385,22 +1767,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1408,6 +1787,40 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1706,10 +2119,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W47"/>
+  <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1725,7 +2138,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="15.75">
       <c r="A1" s="3" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1740,26 +2153,26 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
-      <c r="Q1" s="23" t="s">
+      <c r="Q1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="R1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="23">
+      <c r="S1" s="20">
         <v>10</v>
       </c>
-      <c r="T1" s="23" t="s">
+      <c r="T1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="23" t="s">
+      <c r="U1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="23" t="s">
+      <c r="V1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="64" t="s">
-        <v>108</v>
+      <c r="W1" s="53" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="18.75">
@@ -1770,36 +2183,36 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="61" t="s">
+      <c r="H2" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="61"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-      <c r="Q2" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="R2" s="23" t="s">
+      <c r="Q2" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="23">
+      <c r="S2" s="20">
         <v>100</v>
       </c>
-      <c r="T2" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="U2" s="23" t="s">
+      <c r="T2" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="U2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="V2" s="23" t="s">
+      <c r="V2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="W2" s="65" t="str">
+      <c r="W2" s="54">
         <f>Calibration!E4</f>
-        <v>Other</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -1807,8 +2220,8 @@
       <c r="B3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="50" t="s">
-        <v>40</v>
+      <c r="C3" s="41" t="s">
+        <v>13</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1821,10 +2234,10 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-      <c r="T3" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="W3" s="65">
+      <c r="T3" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="W3" s="54">
         <v>117991</v>
       </c>
     </row>
@@ -1841,69 +2254,69 @@
         <v>0</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="F4" s="6"/>
-      <c r="G4" s="63">
-        <v>34</v>
+      <c r="G4" s="52">
+        <v>38</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="13"/>
+      <c r="L4" s="12"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-      <c r="T4" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="W4" s="65">
+      <c r="T4" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="W4" s="54">
         <v>117992</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="17.25">
       <c r="A5" s="1"/>
       <c r="B5" s="10"/>
-      <c r="C5" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>71</v>
+      <c r="C5" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>61</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="H5" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="I5" s="60" t="s">
-        <v>111</v>
-      </c>
-      <c r="J5" s="60" t="s">
-        <v>112</v>
-      </c>
-      <c r="K5" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="L5" s="14"/>
+      <c r="G5" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="J5" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="K5" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5" s="13"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-      <c r="W5" s="65">
+      <c r="W5" s="54">
         <v>118265</v>
       </c>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="1"/>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="47">
+      <c r="C6" s="38">
         <v>10023</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1918,33 +2331,31 @@
       <c r="G6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="55" t="s">
+      <c r="H6" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="47">
+      <c r="I6" s="38">
         <v>2</v>
       </c>
-      <c r="J6" s="55">
+      <c r="J6" s="45">
         <v>4461</v>
       </c>
-      <c r="K6" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="L6" s="14"/>
+      <c r="K6" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" s="13"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-      <c r="W6" s="65">
+      <c r="W6" s="54">
         <v>118266</v>
       </c>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="1"/>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="49" t="s">
-        <v>66</v>
-      </c>
+      <c r="C7" s="40"/>
       <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1957,32 +2368,38 @@
       <c r="G7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="54" t="s">
+      <c r="H7" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="49">
+      <c r="I7" s="40">
         <v>2</v>
       </c>
-      <c r="J7" s="54">
+      <c r="J7" s="44">
         <v>4461</v>
       </c>
-      <c r="K7" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="L7" s="14"/>
+      <c r="K7" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="13"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-      <c r="W7" s="65">
+      <c r="O7">
+        <v>140600</v>
+      </c>
+      <c r="P7" t="s">
+        <v>144</v>
+      </c>
+      <c r="W7" s="54">
         <v>118267</v>
       </c>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="1"/>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="49">
-        <v>117991</v>
+      <c r="C8" s="40">
+        <v>140598</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
@@ -1996,33 +2413,31 @@
       <c r="G8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="49">
+      <c r="H8" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="40">
         <v>8</v>
       </c>
-      <c r="J8" s="54">
+      <c r="J8" s="44">
         <v>4497</v>
       </c>
-      <c r="K8" s="58" t="s">
-        <v>117</v>
-      </c>
-      <c r="L8" s="14"/>
+      <c r="K8" s="48" t="s">
+        <v>216</v>
+      </c>
+      <c r="L8" s="13"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
-      <c r="W8" s="65">
+      <c r="W8" s="54">
         <v>118268</v>
       </c>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="1"/>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="49">
-        <v>106120</v>
-      </c>
+      <c r="C9" s="40"/>
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
@@ -2035,33 +2450,37 @@
       <c r="G9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="54" t="s">
+      <c r="H9" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="49">
-        <v>2</v>
-      </c>
-      <c r="J9" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="K9" s="58" t="s">
-        <v>132</v>
-      </c>
-      <c r="L9" s="14"/>
+      <c r="I9" s="40">
+        <v>8</v>
+      </c>
+      <c r="J9" s="44">
+        <v>4497</v>
+      </c>
+      <c r="K9" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="L9" s="13"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-      <c r="W9" s="65">
+      <c r="O9">
+        <v>118270</v>
+      </c>
+      <c r="P9" t="s">
+        <v>144</v>
+      </c>
+      <c r="W9" s="54">
         <v>118269</v>
       </c>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="1"/>
-      <c r="B10" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="49">
-        <v>118266</v>
-      </c>
+      <c r="B10" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="40"/>
       <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
@@ -2074,33 +2493,31 @@
       <c r="G10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="54" t="s">
+      <c r="H10" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="49">
-        <v>2</v>
-      </c>
-      <c r="J10" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="K10" s="58" t="s">
-        <v>133</v>
-      </c>
-      <c r="L10" s="14"/>
+      <c r="I10" s="40">
+        <v>8</v>
+      </c>
+      <c r="J10" s="44">
+        <v>4497</v>
+      </c>
+      <c r="K10" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="L10" s="13"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
-      <c r="W10" s="65">
+      <c r="W10" s="54">
         <v>118270</v>
       </c>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="1"/>
-      <c r="B11" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="49">
-        <v>117992</v>
-      </c>
+      <c r="B11" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="40"/>
       <c r="D11" s="2" t="s">
         <v>6</v>
       </c>
@@ -2113,33 +2530,31 @@
       <c r="G11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="54" t="s">
+      <c r="H11" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="49">
-        <v>2</v>
-      </c>
-      <c r="J11" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" s="58" t="s">
-        <v>134</v>
-      </c>
-      <c r="L11" s="14"/>
+      <c r="I11" s="40">
+        <v>8</v>
+      </c>
+      <c r="J11" s="44">
+        <v>4497</v>
+      </c>
+      <c r="K11" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="L11" s="13"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
-      <c r="W11" s="65">
+      <c r="W11" s="54">
         <v>118271</v>
       </c>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="1"/>
-      <c r="B12" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="49">
-        <v>117991</v>
-      </c>
+      <c r="B12" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="40"/>
       <c r="D12" s="2" t="s">
         <v>6</v>
       </c>
@@ -2152,33 +2567,37 @@
       <c r="G12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="54" t="s">
+      <c r="H12" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="49">
-        <v>2</v>
-      </c>
-      <c r="J12" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="K12" s="58" t="s">
-        <v>135</v>
-      </c>
-      <c r="L12" s="14"/>
+      <c r="I12" s="40">
+        <v>8</v>
+      </c>
+      <c r="J12" s="44">
+        <v>4497</v>
+      </c>
+      <c r="K12" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="L12" s="13"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
-      <c r="W12" s="65">
+      <c r="O12">
+        <v>118267</v>
+      </c>
+      <c r="P12" t="s">
+        <v>144</v>
+      </c>
+      <c r="W12" s="54">
         <v>118272</v>
       </c>
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="1"/>
-      <c r="B13" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="49">
-        <v>10023</v>
-      </c>
+      <c r="B13" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="40"/>
       <c r="D13" s="2" t="s">
         <v>6</v>
       </c>
@@ -2191,35 +2610,33 @@
       <c r="G13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="49">
-        <v>2</v>
-      </c>
-      <c r="J13" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="K13" s="58" t="s">
-        <v>118</v>
-      </c>
-      <c r="L13" s="14"/>
+      <c r="H13" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="40">
+        <v>8</v>
+      </c>
+      <c r="J13" s="44">
+        <v>4497</v>
+      </c>
+      <c r="K13" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="L13" s="13"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
-      <c r="W13" s="65">
+      <c r="W13" s="54">
         <v>106120</v>
       </c>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="1"/>
-      <c r="B14" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="49" t="s">
-        <v>66</v>
-      </c>
+      <c r="B14" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="40"/>
       <c r="D14" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>7</v>
@@ -2230,33 +2647,33 @@
       <c r="G14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="54" t="s">
+      <c r="H14" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="49">
-        <v>3</v>
-      </c>
-      <c r="J14" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="K14" s="58"/>
-      <c r="L14" s="14"/>
+      <c r="I14" s="40">
+        <v>8</v>
+      </c>
+      <c r="J14" s="44">
+        <v>4497</v>
+      </c>
+      <c r="K14" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="L14" s="13"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
-      <c r="W14" s="65">
+      <c r="W14" s="54">
         <v>106121</v>
       </c>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="1"/>
-      <c r="B15" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="49" t="s">
-        <v>66</v>
-      </c>
+      <c r="B15" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="40"/>
       <c r="D15" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>7</v>
@@ -2267,33 +2684,39 @@
       <c r="G15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="54" t="s">
+      <c r="H15" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="49">
-        <v>3</v>
-      </c>
-      <c r="J15" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="K15" s="58"/>
-      <c r="L15" s="14"/>
+      <c r="I15" s="40">
+        <v>8</v>
+      </c>
+      <c r="J15" s="44">
+        <v>4497</v>
+      </c>
+      <c r="K15" s="48" t="s">
+        <v>217</v>
+      </c>
+      <c r="L15" s="13"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-      <c r="W15" s="65">
+      <c r="O15">
+        <v>27329</v>
+      </c>
+      <c r="P15" t="s">
+        <v>144</v>
+      </c>
+      <c r="W15" s="54">
         <v>106122</v>
       </c>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="1"/>
-      <c r="B16" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" s="49" t="s">
-        <v>66</v>
-      </c>
+      <c r="B16" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="40"/>
       <c r="D16" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>7</v>
@@ -2304,33 +2727,33 @@
       <c r="G16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="54" t="s">
+      <c r="H16" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="I16" s="49">
-        <v>3</v>
-      </c>
-      <c r="J16" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="K16" s="58"/>
-      <c r="L16" s="14"/>
+      <c r="I16" s="40">
+        <v>8</v>
+      </c>
+      <c r="J16" s="44">
+        <v>4497</v>
+      </c>
+      <c r="K16" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="L16" s="13"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
-      <c r="W16" s="65">
+      <c r="W16" s="54">
         <v>24016</v>
       </c>
     </row>
     <row r="17" spans="1:23">
       <c r="A17" s="1"/>
-      <c r="B17" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" s="49" t="s">
-        <v>66</v>
-      </c>
+      <c r="B17" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="40"/>
       <c r="D17" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>7</v>
@@ -2341,33 +2764,33 @@
       <c r="G17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="54" t="s">
+      <c r="H17" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="49">
-        <v>3</v>
-      </c>
-      <c r="J17" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="K17" s="58"/>
-      <c r="L17" s="14"/>
+      <c r="I17" s="40">
+        <v>8</v>
+      </c>
+      <c r="J17" s="44">
+        <v>4497</v>
+      </c>
+      <c r="K17" s="48" t="s">
+        <v>153</v>
+      </c>
+      <c r="L17" s="13"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
-      <c r="W17" s="65">
+      <c r="W17" s="54">
         <v>27329</v>
       </c>
     </row>
     <row r="18" spans="1:23">
       <c r="A18" s="1"/>
-      <c r="B18" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="49" t="s">
-        <v>66</v>
-      </c>
+      <c r="B18" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="40"/>
       <c r="D18" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>7</v>
@@ -2378,33 +2801,33 @@
       <c r="G18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="54" t="s">
+      <c r="H18" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="I18" s="49">
-        <v>3</v>
-      </c>
-      <c r="J18" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="K18" s="58"/>
-      <c r="L18" s="14"/>
+      <c r="I18" s="40">
+        <v>8</v>
+      </c>
+      <c r="J18" s="44">
+        <v>4497</v>
+      </c>
+      <c r="K18" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="L18" s="13"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
-      <c r="W18" s="65">
+      <c r="W18" s="54">
         <v>78795</v>
       </c>
     </row>
     <row r="19" spans="1:23">
       <c r="A19" s="1"/>
-      <c r="B19" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19" s="49" t="s">
-        <v>66</v>
-      </c>
+      <c r="B19" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="40"/>
       <c r="D19" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>7</v>
@@ -2415,33 +2838,33 @@
       <c r="G19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="54" t="s">
+      <c r="H19" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="I19" s="49">
-        <v>3</v>
-      </c>
-      <c r="J19" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="K19" s="58"/>
-      <c r="L19" s="14"/>
+      <c r="I19" s="40">
+        <v>8</v>
+      </c>
+      <c r="J19" s="44">
+        <v>4497</v>
+      </c>
+      <c r="K19" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="L19" s="13"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
-      <c r="W19" s="65">
+      <c r="W19" s="54">
         <v>97281</v>
       </c>
     </row>
     <row r="20" spans="1:23">
       <c r="A20" s="1"/>
-      <c r="B20" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="49" t="s">
-        <v>66</v>
-      </c>
+      <c r="B20" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="40"/>
       <c r="D20" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>7</v>
@@ -2452,33 +2875,33 @@
       <c r="G20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="54" t="s">
+      <c r="H20" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="I20" s="49">
-        <v>3</v>
-      </c>
-      <c r="J20" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="K20" s="58"/>
-      <c r="L20" s="14"/>
+      <c r="I20" s="40">
+        <v>8</v>
+      </c>
+      <c r="J20" s="44">
+        <v>4497</v>
+      </c>
+      <c r="K20" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="L20" s="13"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-      <c r="W20" s="65">
+      <c r="W20" s="54">
         <v>97282</v>
       </c>
     </row>
     <row r="21" spans="1:23">
       <c r="A21" s="1"/>
-      <c r="B21" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21" s="49" t="s">
-        <v>66</v>
-      </c>
+      <c r="B21" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="40"/>
       <c r="D21" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>7</v>
@@ -2489,33 +2912,33 @@
       <c r="G21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="54" t="s">
+      <c r="H21" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="I21" s="49">
-        <v>3</v>
-      </c>
-      <c r="J21" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="K21" s="58"/>
-      <c r="L21" s="14"/>
+      <c r="I21" s="40">
+        <v>8</v>
+      </c>
+      <c r="J21" s="44">
+        <v>4497</v>
+      </c>
+      <c r="K21" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="L21" s="13"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
-      <c r="W21" s="65">
+      <c r="W21" s="54">
         <v>14468</v>
       </c>
     </row>
     <row r="22" spans="1:23">
       <c r="A22" s="1"/>
-      <c r="B22" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="C22" s="49" t="s">
-        <v>66</v>
-      </c>
+      <c r="B22" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="40"/>
       <c r="D22" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>7</v>
@@ -2526,33 +2949,33 @@
       <c r="G22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="54" t="s">
+      <c r="H22" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="I22" s="49">
-        <v>4</v>
-      </c>
-      <c r="J22" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="K22" s="58"/>
-      <c r="L22" s="14"/>
+      <c r="I22" s="40">
+        <v>8</v>
+      </c>
+      <c r="J22" s="44">
+        <v>4497</v>
+      </c>
+      <c r="K22" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="L22" s="13"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
-      <c r="W22" s="65">
+      <c r="W22" s="54">
         <v>14469</v>
       </c>
     </row>
     <row r="23" spans="1:23">
       <c r="A23" s="1"/>
-      <c r="B23" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" s="49" t="s">
-        <v>66</v>
-      </c>
+      <c r="B23" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="40"/>
       <c r="D23" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>7</v>
@@ -2563,33 +2986,33 @@
       <c r="G23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="54" t="s">
+      <c r="H23" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="I23" s="49">
-        <v>4</v>
-      </c>
-      <c r="J23" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="K23" s="58"/>
-      <c r="L23" s="14"/>
+      <c r="I23" s="40">
+        <v>8</v>
+      </c>
+      <c r="J23" s="44">
+        <v>4497</v>
+      </c>
+      <c r="K23" s="48" t="s">
+        <v>218</v>
+      </c>
+      <c r="L23" s="13"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
-      <c r="W23" s="65">
+      <c r="W23" s="54">
         <v>14470</v>
       </c>
     </row>
     <row r="24" spans="1:23">
       <c r="A24" s="1"/>
-      <c r="B24" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="49" t="s">
-        <v>66</v>
-      </c>
+      <c r="B24" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="40"/>
       <c r="D24" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>7</v>
@@ -2600,33 +3023,33 @@
       <c r="G24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="54" t="s">
+      <c r="H24" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="I24" s="49">
-        <v>4</v>
-      </c>
-      <c r="J24" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="K24" s="58"/>
-      <c r="L24" s="14"/>
+      <c r="I24" s="40">
+        <v>9</v>
+      </c>
+      <c r="J24" s="44">
+        <v>4497</v>
+      </c>
+      <c r="K24" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="L24" s="13"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
-      <c r="W24" s="65">
+      <c r="W24" s="54">
         <v>25156</v>
       </c>
     </row>
     <row r="25" spans="1:23">
       <c r="A25" s="1"/>
-      <c r="B25" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" s="49" t="s">
-        <v>66</v>
-      </c>
+      <c r="B25" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="40"/>
       <c r="D25" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>7</v>
@@ -2637,33 +3060,33 @@
       <c r="G25" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H25" s="54" t="s">
+      <c r="H25" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="I25" s="49">
-        <v>4</v>
-      </c>
-      <c r="J25" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="K25" s="58"/>
-      <c r="L25" s="14"/>
+      <c r="I25" s="40">
+        <v>9</v>
+      </c>
+      <c r="J25" s="44">
+        <v>4497</v>
+      </c>
+      <c r="K25" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="L25" s="13"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
-      <c r="W25" s="65">
+      <c r="W25" s="54">
         <v>25157</v>
       </c>
     </row>
     <row r="26" spans="1:23">
       <c r="A26" s="1"/>
-      <c r="B26" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="C26" s="49" t="s">
-        <v>66</v>
-      </c>
+      <c r="B26" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="40"/>
       <c r="D26" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>7</v>
@@ -2674,33 +3097,33 @@
       <c r="G26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H26" s="54" t="s">
+      <c r="H26" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="I26" s="49">
-        <v>4</v>
-      </c>
-      <c r="J26" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="K26" s="58"/>
-      <c r="L26" s="14"/>
+      <c r="I26" s="40">
+        <v>9</v>
+      </c>
+      <c r="J26" s="44">
+        <v>4497</v>
+      </c>
+      <c r="K26" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="L26" s="13"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
-      <c r="W26" s="65">
+      <c r="W26" s="54">
         <v>25158</v>
       </c>
     </row>
     <row r="27" spans="1:23">
       <c r="A27" s="1"/>
-      <c r="B27" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="C27" s="49" t="s">
-        <v>66</v>
-      </c>
+      <c r="B27" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="40"/>
       <c r="D27" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>7</v>
@@ -2711,33 +3134,33 @@
       <c r="G27" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="54" t="s">
+      <c r="H27" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="I27" s="49">
-        <v>4</v>
-      </c>
-      <c r="J27" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="K27" s="58"/>
-      <c r="L27" s="14"/>
+      <c r="I27" s="40">
+        <v>9</v>
+      </c>
+      <c r="J27" s="44">
+        <v>4497</v>
+      </c>
+      <c r="K27" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="L27" s="13"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
-      <c r="W27" s="65">
+      <c r="W27" s="54">
         <v>25159</v>
       </c>
     </row>
     <row r="28" spans="1:23">
       <c r="A28" s="1"/>
-      <c r="B28" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" s="49" t="s">
-        <v>66</v>
-      </c>
+      <c r="B28" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="40"/>
       <c r="D28" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>7</v>
@@ -2748,33 +3171,33 @@
       <c r="G28" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H28" s="54" t="s">
+      <c r="H28" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="I28" s="49">
-        <v>4</v>
-      </c>
-      <c r="J28" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="K28" s="58"/>
-      <c r="L28" s="14"/>
+      <c r="I28" s="40">
+        <v>9</v>
+      </c>
+      <c r="J28" s="44">
+        <v>4497</v>
+      </c>
+      <c r="K28" s="48" t="s">
+        <v>163</v>
+      </c>
+      <c r="L28" s="13"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
-      <c r="W28" s="65">
-        <v>10023</v>
+      <c r="W28" s="30">
+        <v>140581</v>
       </c>
     </row>
     <row r="29" spans="1:23">
       <c r="A29" s="1"/>
-      <c r="B29" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="C29" s="49" t="s">
-        <v>66</v>
-      </c>
+      <c r="B29" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="40"/>
       <c r="D29" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>7</v>
@@ -2785,33 +3208,33 @@
       <c r="G29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H29" s="54" t="s">
+      <c r="H29" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="I29" s="49">
-        <v>4</v>
-      </c>
-      <c r="J29" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="K29" s="58"/>
-      <c r="L29" s="14"/>
+      <c r="I29" s="40">
+        <v>9</v>
+      </c>
+      <c r="J29" s="44">
+        <v>4497</v>
+      </c>
+      <c r="K29" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="L29" s="13"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
-      <c r="W29" s="65">
-        <v>10083</v>
+      <c r="W29" s="30">
+        <v>140582</v>
       </c>
     </row>
     <row r="30" spans="1:23">
       <c r="A30" s="1"/>
-      <c r="B30" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="C30" s="49" t="s">
-        <v>66</v>
-      </c>
+      <c r="B30" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="40"/>
       <c r="D30" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>7</v>
@@ -2822,33 +3245,33 @@
       <c r="G30" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H30" s="54" t="s">
+      <c r="H30" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="I30" s="49">
-        <v>5</v>
-      </c>
-      <c r="J30" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="K30" s="58"/>
-      <c r="L30" s="14"/>
+      <c r="I30" s="40">
+        <v>9</v>
+      </c>
+      <c r="J30" s="44">
+        <v>4497</v>
+      </c>
+      <c r="K30" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="L30" s="13"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
-      <c r="W30" s="65">
-        <v>10275</v>
+      <c r="W30" s="30">
+        <v>140593</v>
       </c>
     </row>
     <row r="31" spans="1:23">
       <c r="A31" s="1"/>
-      <c r="B31" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="C31" s="49" t="s">
-        <v>66</v>
-      </c>
+      <c r="B31" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="40"/>
       <c r="D31" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>7</v>
@@ -2859,33 +3282,33 @@
       <c r="G31" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H31" s="54" t="s">
+      <c r="H31" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="I31" s="49">
-        <v>5</v>
-      </c>
-      <c r="J31" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="K31" s="58"/>
-      <c r="L31" s="14"/>
+      <c r="I31" s="40">
+        <v>9</v>
+      </c>
+      <c r="J31" s="44">
+        <v>4497</v>
+      </c>
+      <c r="K31" s="48" t="s">
+        <v>219</v>
+      </c>
+      <c r="L31" s="13"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
-      <c r="W31" s="65">
-        <v>10139</v>
+      <c r="W31" s="30">
+        <v>140594</v>
       </c>
     </row>
     <row r="32" spans="1:23">
       <c r="A32" s="1"/>
-      <c r="B32" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="C32" s="49" t="s">
-        <v>66</v>
-      </c>
+      <c r="B32" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="40"/>
       <c r="D32" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>7</v>
@@ -2896,30 +3319,33 @@
       <c r="G32" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H32" s="54" t="s">
+      <c r="H32" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="I32" s="49">
-        <v>5</v>
-      </c>
-      <c r="J32" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="K32" s="58"/>
-      <c r="L32" s="14"/>
+      <c r="I32" s="40">
+        <v>9</v>
+      </c>
+      <c r="J32" s="44">
+        <v>4497</v>
+      </c>
+      <c r="K32" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="L32" s="13"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
-    </row>
-    <row r="33" spans="1:14">
+      <c r="W32" s="30">
+        <v>140595</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
       <c r="A33" s="1"/>
-      <c r="B33" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="C33" s="49" t="s">
-        <v>66</v>
-      </c>
+      <c r="B33" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="40"/>
       <c r="D33" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>7</v>
@@ -2930,30 +3356,33 @@
       <c r="G33" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H33" s="54" t="s">
+      <c r="H33" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="I33" s="49">
-        <v>5</v>
-      </c>
-      <c r="J33" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="K33" s="58"/>
-      <c r="L33" s="14"/>
+      <c r="I33" s="40">
+        <v>9</v>
+      </c>
+      <c r="J33" s="44">
+        <v>4497</v>
+      </c>
+      <c r="K33" s="48" t="s">
+        <v>221</v>
+      </c>
+      <c r="L33" s="13"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
-    </row>
-    <row r="34" spans="1:14">
+      <c r="W33" s="30">
+        <v>140596</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
       <c r="A34" s="1"/>
-      <c r="B34" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="C34" s="49" t="s">
-        <v>66</v>
-      </c>
+      <c r="B34" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="40"/>
       <c r="D34" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>7</v>
@@ -2964,30 +3393,33 @@
       <c r="G34" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H34" s="54" t="s">
+      <c r="H34" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="I34" s="49">
-        <v>5</v>
-      </c>
-      <c r="J34" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="K34" s="58"/>
-      <c r="L34" s="14"/>
+      <c r="I34" s="40">
+        <v>9</v>
+      </c>
+      <c r="J34" s="44">
+        <v>4497</v>
+      </c>
+      <c r="K34" s="48" t="s">
+        <v>222</v>
+      </c>
+      <c r="L34" s="13"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
-    </row>
-    <row r="35" spans="1:14">
+      <c r="W34" s="30">
+        <v>140597</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
       <c r="A35" s="1"/>
-      <c r="B35" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="C35" s="49" t="s">
-        <v>66</v>
-      </c>
+      <c r="B35" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="40"/>
       <c r="D35" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>7</v>
@@ -2998,30 +3430,33 @@
       <c r="G35" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="54" t="s">
+      <c r="H35" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="I35" s="49">
-        <v>5</v>
-      </c>
-      <c r="J35" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="K35" s="58"/>
-      <c r="L35" s="14"/>
+      <c r="I35" s="40">
+        <v>9</v>
+      </c>
+      <c r="J35" s="44">
+        <v>4497</v>
+      </c>
+      <c r="K35" s="48" t="s">
+        <v>223</v>
+      </c>
+      <c r="L35" s="13"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
-    </row>
-    <row r="36" spans="1:14">
+      <c r="W35" s="30">
+        <v>140598</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
       <c r="A36" s="1"/>
-      <c r="B36" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="C36" s="49" t="s">
-        <v>66</v>
-      </c>
+      <c r="B36" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="40"/>
       <c r="D36" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>7</v>
@@ -3032,30 +3467,33 @@
       <c r="G36" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H36" s="54" t="s">
+      <c r="H36" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="I36" s="49">
-        <v>5</v>
-      </c>
-      <c r="J36" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="K36" s="58"/>
-      <c r="L36" s="14"/>
+      <c r="I36" s="40">
+        <v>9</v>
+      </c>
+      <c r="J36" s="44">
+        <v>4497</v>
+      </c>
+      <c r="K36" s="48" t="s">
+        <v>224</v>
+      </c>
+      <c r="L36" s="13"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
-    </row>
-    <row r="37" spans="1:14">
+      <c r="W36" s="30">
+        <v>140599</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
       <c r="A37" s="1"/>
-      <c r="B37" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="C37" s="49" t="s">
-        <v>66</v>
-      </c>
+      <c r="B37" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="40"/>
       <c r="D37" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>7</v>
@@ -3066,30 +3504,33 @@
       <c r="G37" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H37" s="54" t="s">
+      <c r="H37" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="I37" s="49">
-        <v>5</v>
-      </c>
-      <c r="J37" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="K37" s="58"/>
-      <c r="L37" s="14"/>
+      <c r="I37" s="40">
+        <v>9</v>
+      </c>
+      <c r="J37" s="44">
+        <v>4497</v>
+      </c>
+      <c r="K37" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="L37" s="13"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
-    </row>
-    <row r="38" spans="1:14">
+      <c r="W37" s="30">
+        <v>140600</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
       <c r="A38" s="1"/>
-      <c r="B38" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="C38" s="49" t="s">
-        <v>66</v>
-      </c>
+      <c r="B38" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="40"/>
       <c r="D38" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>7</v>
@@ -3100,191 +3541,345 @@
       <c r="G38" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H38" s="54" t="s">
+      <c r="H38" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="I38" s="49">
-        <v>6</v>
-      </c>
-      <c r="J38" s="54">
-        <v>4461</v>
-      </c>
-      <c r="K38" s="58"/>
-      <c r="L38" s="14"/>
+      <c r="I38" s="40">
+        <v>9</v>
+      </c>
+      <c r="J38" s="44">
+        <v>4497</v>
+      </c>
+      <c r="K38" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="L38" s="13"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
-    </row>
-    <row r="39" spans="1:14">
+      <c r="W38" s="30">
+        <v>10023</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
       <c r="A39" s="1"/>
-      <c r="B39" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D39" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="E39" s="16" t="s">
+      <c r="B39" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" s="40"/>
+      <c r="D39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="F39" s="16">
+      <c r="F39" s="44">
         <v>10</v>
       </c>
-      <c r="G39" s="45" t="s">
+      <c r="G39" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H39" s="46" t="s">
+      <c r="H39" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="I39" s="17">
-        <v>6</v>
-      </c>
-      <c r="J39" s="46">
-        <v>4461</v>
-      </c>
-      <c r="K39" s="59"/>
-      <c r="L39" s="14"/>
+      <c r="I39" s="40">
+        <v>9</v>
+      </c>
+      <c r="J39" s="44">
+        <v>4497</v>
+      </c>
+      <c r="K39" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="L39" s="13"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
-    </row>
-    <row r="40" spans="1:14">
+      <c r="W39" s="30">
+        <v>10083</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
       <c r="A40" s="1"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="15"/>
+      <c r="B40" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="C40" s="40"/>
+      <c r="D40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="44">
+        <v>10</v>
+      </c>
+      <c r="G40" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H40" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="I40" s="40">
+        <v>10</v>
+      </c>
+      <c r="J40" s="44">
+        <v>4497</v>
+      </c>
+      <c r="K40" s="67" t="s">
+        <v>230</v>
+      </c>
+      <c r="L40" s="13"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
-    </row>
-    <row r="41" spans="1:14">
+      <c r="W40" s="30"/>
+    </row>
+    <row r="41" spans="1:23">
       <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
+      <c r="B41" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="C41" s="40"/>
+      <c r="D41" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="44">
+        <v>10</v>
+      </c>
+      <c r="G41" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="I41" s="40">
+        <v>10</v>
+      </c>
+      <c r="J41" s="44">
+        <v>4497</v>
+      </c>
+      <c r="K41" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="L41" s="13"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
-    </row>
-    <row r="42" spans="1:14">
+      <c r="W41" s="30"/>
+    </row>
+    <row r="42" spans="1:23">
       <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
+      <c r="B42" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="C42" s="40"/>
+      <c r="D42" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="44">
+        <v>10</v>
+      </c>
+      <c r="G42" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H42" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="I42" s="40">
+        <v>11</v>
+      </c>
+      <c r="J42" s="44">
+        <v>4497</v>
+      </c>
+      <c r="K42" s="48" t="s">
+        <v>234</v>
+      </c>
+      <c r="L42" s="13"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
-    </row>
-    <row r="43" spans="1:14">
-      <c r="A43" s="19"/>
-      <c r="B43" s="6" t="s">
+      <c r="W42" s="30"/>
+    </row>
+    <row r="43" spans="1:23">
+      <c r="A43" s="1"/>
+      <c r="B43" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="C43" s="40"/>
+      <c r="D43" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="44">
+        <v>10</v>
+      </c>
+      <c r="G43" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H43" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="I43" s="40">
+        <v>11</v>
+      </c>
+      <c r="J43" s="44">
+        <v>4497</v>
+      </c>
+      <c r="K43" s="48" t="s">
+        <v>235</v>
+      </c>
+      <c r="L43" s="13"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="W43" s="30"/>
+    </row>
+    <row r="44" spans="1:23">
+      <c r="A44" s="1"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="W44" s="30">
+        <v>10275</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="W45" s="30">
+        <v>10139</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="1:23">
+      <c r="A47" s="16"/>
+      <c r="B47" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="13"/>
-    </row>
-    <row r="44" spans="1:14">
-      <c r="A44" s="10"/>
-      <c r="B44" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="27"/>
-      <c r="M44" s="27"/>
-      <c r="N44" s="14"/>
-    </row>
-    <row r="45" spans="1:14">
-      <c r="A45" s="10"/>
-      <c r="B45" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="18"/>
-      <c r="L45" s="18"/>
-      <c r="M45" s="18"/>
-      <c r="N45" s="14"/>
-    </row>
-    <row r="46" spans="1:14">
-      <c r="A46" s="10"/>
-      <c r="B46" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="18"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="18"/>
-      <c r="L46" s="18"/>
-      <c r="M46" s="18"/>
-      <c r="N46" s="14"/>
-    </row>
-    <row r="47" spans="1:14">
-      <c r="A47" s="12"/>
-      <c r="B47" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="15"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="12"/>
+    </row>
+    <row r="48" spans="1:23">
+      <c r="A48" s="10"/>
+      <c r="B48" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="13"/>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" s="10"/>
+      <c r="B49" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="13"/>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" s="10"/>
+      <c r="B50" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="15"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="13"/>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" s="11"/>
+      <c r="B51" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -3292,20 +3887,20 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
       <formula1>$T$1:$T$4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:H39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H22:H28 G6:G43 H6:H20 H30:H43">
       <formula1>$V$1:$V$2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D43">
       <formula1>$Q$1:$Q$2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E22:E28 E6:E20 E30:E43">
       <formula1>$R$1:$R$2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F22:F28 F6:F20 F30:F43">
       <formula1>$S$1:$S$2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C39">
-      <formula1>$W$2:$W$31</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C43">
+      <formula1>$W$2:$W$47</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3315,1134 +3910,3224 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L54"/>
+  <dimension ref="A1:N97"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="36" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="36" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" customWidth="1"/>
-    <col min="10" max="10" width="41" customWidth="1"/>
+    <col min="3" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75">
+    <row r="1" spans="1:14" ht="15.75">
       <c r="A1" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" ht="15.75">
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" ht="15.75">
       <c r="A2" s="3"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" ht="17.25">
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" ht="17.25">
       <c r="A3" s="1"/>
       <c r="B3" s="10"/>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="26" t="s">
+      <c r="L3" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" s="13"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" s="30">
+        <v>204</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="37">
+        <f>0.0096/9.81</f>
+        <v>9.7859327217125367E-4</v>
+      </c>
+      <c r="J4" s="37">
+        <f t="shared" ref="J4:J67" si="0">1/I4</f>
+        <v>1021.8750000000001</v>
+      </c>
+      <c r="K4" s="32">
+        <v>39966</v>
+      </c>
+      <c r="L4" s="26"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" s="30">
+        <v>205</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="37">
+        <f>0.0096/9.81</f>
+        <v>9.7859327217125367E-4</v>
+      </c>
+      <c r="J5" s="37">
+        <f t="shared" si="0"/>
+        <v>1021.8750000000001</v>
+      </c>
+      <c r="K5" s="32">
+        <v>39966</v>
+      </c>
+      <c r="L5" s="26"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="D6" s="30">
+        <v>8203</v>
+      </c>
+      <c r="E6" s="30">
+        <v>10023</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="37">
+        <v>3.32E-2</v>
+      </c>
+      <c r="J6" s="37">
+        <f t="shared" si="0"/>
+        <v>30.120481927710841</v>
+      </c>
+      <c r="K6" s="32">
+        <v>37027</v>
+      </c>
+      <c r="L6" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="J3" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="F4" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" s="51">
-        <v>1</v>
-      </c>
-      <c r="H4" s="51">
-        <v>1</v>
-      </c>
-      <c r="I4" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="J4" s="29"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="36">
+      <c r="M6" s="13"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="30">
+        <v>8203</v>
+      </c>
+      <c r="E7" s="30">
+        <v>10083</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="37">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="J7" s="37">
+        <f t="shared" si="0"/>
+        <v>30.303030303030301</v>
+      </c>
+      <c r="K7" s="32">
+        <v>37602</v>
+      </c>
+      <c r="L7" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7" s="13"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="30">
+        <v>8203</v>
+      </c>
+      <c r="E8" s="30">
+        <v>10139</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="37">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="J8" s="37">
+        <f t="shared" si="0"/>
+        <v>34.482758620689651</v>
+      </c>
+      <c r="K8" s="32">
+        <v>40450</v>
+      </c>
+      <c r="L8" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="M8" s="13"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="30">
+        <v>8203</v>
+      </c>
+      <c r="E9" s="30">
+        <v>10275</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="37">
+        <v>2.9690000000000001E-2</v>
+      </c>
+      <c r="J9" s="37">
+        <f t="shared" si="0"/>
+        <v>33.68137420006736</v>
+      </c>
+      <c r="K9" s="32">
+        <v>40450</v>
+      </c>
+      <c r="L9" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="M9" s="13"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="30">
+        <v>14468</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="37">
+        <f>0.1035/9.81</f>
+        <v>1.0550458715596329E-2</v>
+      </c>
+      <c r="J10" s="37">
+        <f t="shared" si="0"/>
+        <v>94.782608695652186</v>
+      </c>
+      <c r="K10" s="32">
+        <v>36717</v>
+      </c>
+      <c r="L10" s="26"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="30">
+        <v>14469</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="37">
+        <f>0.1016/9.81</f>
+        <v>1.0356778797145768E-2</v>
+      </c>
+      <c r="J11" s="37">
+        <f t="shared" si="0"/>
+        <v>96.555118110236236</v>
+      </c>
+      <c r="K11" s="32">
+        <v>36717</v>
+      </c>
+      <c r="L11" s="26"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="30">
+        <v>14470</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="37">
+        <f>0.0999/9.81</f>
+        <v>1.0183486238532109E-2</v>
+      </c>
+      <c r="J12" s="37">
+        <f t="shared" si="0"/>
+        <v>98.198198198198213</v>
+      </c>
+      <c r="K12" s="32">
+        <v>36717</v>
+      </c>
+      <c r="L12" s="26"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="30">
+        <v>14472</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="37">
+        <f>0.0993/9.81</f>
+        <v>1.0122324159021406E-2</v>
+      </c>
+      <c r="J13" s="37">
+        <f t="shared" si="0"/>
+        <v>98.791540785498498</v>
+      </c>
+      <c r="K13" s="32">
+        <v>36717</v>
+      </c>
+      <c r="L13" s="26"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="30">
+        <v>24016</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="37">
+        <f>0.00948/9.81</f>
+        <v>9.6636085626911311E-4</v>
+      </c>
+      <c r="J14" s="37">
+        <f t="shared" si="0"/>
+        <v>1034.8101265822786</v>
+      </c>
+      <c r="K14" s="32">
+        <v>36683</v>
+      </c>
+      <c r="L14" s="26"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="30">
+        <v>25156</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="37">
+        <v>1.0290000000000001E-2</v>
+      </c>
+      <c r="J15" s="37">
+        <f t="shared" si="0"/>
+        <v>97.181729834791057</v>
+      </c>
+      <c r="K15" s="32">
+        <v>38024</v>
+      </c>
+      <c r="L15" s="26"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="1"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="30">
+        <v>25157</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="37">
+        <v>1.1010000000000001E-2</v>
+      </c>
+      <c r="J16" s="37">
+        <f t="shared" si="0"/>
+        <v>90.826521344232503</v>
+      </c>
+      <c r="K16" s="32">
+        <v>38024</v>
+      </c>
+      <c r="L16" s="26"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="1"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="30">
+        <v>25158</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="37">
+        <v>1.017E-2</v>
+      </c>
+      <c r="J17" s="37">
+        <f t="shared" si="0"/>
+        <v>98.328416912487711</v>
+      </c>
+      <c r="K17" s="32">
+        <v>38024</v>
+      </c>
+      <c r="L17" s="26"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="1"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="30">
+        <v>25159</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H18" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="37">
+        <v>1.0970000000000001E-2</v>
+      </c>
+      <c r="J18" s="37">
+        <f t="shared" si="0"/>
+        <v>91.157702825888776</v>
+      </c>
+      <c r="K18" s="32">
+        <v>38024</v>
+      </c>
+      <c r="L18" s="26"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="1"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="30">
+        <v>27329</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="37">
+        <f>0.00981/9.81</f>
+        <v>9.999999999999998E-4</v>
+      </c>
+      <c r="J19" s="37">
+        <f t="shared" si="0"/>
+        <v>1000.0000000000002</v>
+      </c>
+      <c r="K19" s="32">
+        <v>36872</v>
+      </c>
+      <c r="L19" s="26"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="1"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="30">
+        <v>78795</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H20" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="37">
+        <v>1.008E-3</v>
+      </c>
+      <c r="J20" s="37">
+        <f t="shared" si="0"/>
+        <v>992.06349206349205</v>
+      </c>
+      <c r="K20" s="32">
+        <v>39066</v>
+      </c>
+      <c r="L20" s="26"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="1"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="30">
+        <v>97281</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H21" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" s="37">
+        <v>9.6900000000000003E-4</v>
+      </c>
+      <c r="J21" s="37">
+        <f t="shared" si="0"/>
+        <v>1031.9917440660474</v>
+      </c>
+      <c r="K21" s="32">
+        <v>39695</v>
+      </c>
+      <c r="L21" s="26"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="1"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="30">
+        <v>97282</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H22" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="37">
+        <v>9.6900000000000003E-4</v>
+      </c>
+      <c r="J22" s="37">
+        <f t="shared" si="0"/>
+        <v>1031.9917440660474</v>
+      </c>
+      <c r="K22" s="32">
+        <v>39695</v>
+      </c>
+      <c r="L22" s="26"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="1"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="30">
+        <v>106120</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H23" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="37">
+        <v>1.026E-3</v>
+      </c>
+      <c r="J23" s="37">
+        <f t="shared" si="0"/>
+        <v>974.65886939571146</v>
+      </c>
+      <c r="K23" s="32">
+        <v>40070</v>
+      </c>
+      <c r="L23" s="26"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="1"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="30">
+        <v>106121</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H24" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="37">
+        <v>1.0070000000000001E-3</v>
+      </c>
+      <c r="J24" s="37">
+        <f t="shared" si="0"/>
+        <v>993.04865938430976</v>
+      </c>
+      <c r="K24" s="32">
+        <v>40070</v>
+      </c>
+      <c r="L24" s="26"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="1"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="30">
+        <v>106122</v>
+      </c>
+      <c r="F25" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H25" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" s="37">
+        <v>9.7900000000000005E-4</v>
+      </c>
+      <c r="J25" s="37">
+        <f t="shared" si="0"/>
+        <v>1021.4504596527067</v>
+      </c>
+      <c r="K25" s="32">
+        <v>40070</v>
+      </c>
+      <c r="L25" s="26"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="1"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="30">
         <v>117991</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F26" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H26" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="37">
+        <v>9.4799999999999995E-4</v>
+      </c>
+      <c r="J26" s="37">
+        <f t="shared" si="0"/>
+        <v>1054.8523206751056</v>
+      </c>
+      <c r="K26" s="32">
+        <v>40434</v>
+      </c>
+      <c r="L26" s="26"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="1"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="43">
-        <v>9.4799999999999995E-4</v>
-      </c>
-      <c r="H5" s="43">
-        <f>1/G5</f>
-        <v>1054.8523206751056</v>
-      </c>
-      <c r="I5" s="38">
+      <c r="E27" s="30">
+        <v>117992</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H27" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" s="37">
+        <v>9.6000000000000002E-4</v>
+      </c>
+      <c r="J27" s="37">
+        <f t="shared" si="0"/>
+        <v>1041.6666666666667</v>
+      </c>
+      <c r="K27" s="32">
         <v>40434</v>
       </c>
-      <c r="J5" s="30"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="36">
-        <v>117992</v>
-      </c>
-      <c r="F6" s="36" t="s">
+      <c r="L27" s="60"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="1"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="43">
-        <v>9.6000000000000002E-4</v>
-      </c>
-      <c r="H6" s="43">
-        <f t="shared" ref="H6:H14" si="0">1/G6</f>
-        <v>1041.6666666666667</v>
-      </c>
-      <c r="I6" s="38">
-        <v>40434</v>
-      </c>
-      <c r="J6" s="30"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="36">
+      <c r="E28" s="30">
         <v>118265</v>
       </c>
-      <c r="F7" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="43">
+      <c r="F28" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H28" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28" s="37">
         <v>9.859999999999999E-4</v>
       </c>
-      <c r="H7" s="43">
+      <c r="J28" s="37">
         <f t="shared" si="0"/>
         <v>1014.1987829614606</v>
       </c>
-      <c r="I7" s="38">
+      <c r="K28" s="32">
         <v>40434</v>
       </c>
-      <c r="J7" s="30"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="36">
+      <c r="L28" s="26"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="1"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="30">
         <v>118266</v>
       </c>
-      <c r="F8" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="43">
+      <c r="F29" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H29" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" s="37">
         <v>9.9799999999999997E-4</v>
       </c>
-      <c r="H8" s="43">
+      <c r="J29" s="37">
         <f t="shared" si="0"/>
         <v>1002.0040080160321</v>
       </c>
-      <c r="I8" s="38">
+      <c r="K29" s="32">
         <v>40434</v>
       </c>
-      <c r="J8" s="30"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="36">
+      <c r="L29" s="60"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="1"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="30">
         <v>118267</v>
       </c>
-      <c r="F9" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="43">
+      <c r="F30" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H30" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I30" s="37">
         <v>9.7599999999999998E-4</v>
       </c>
-      <c r="H9" s="43">
+      <c r="J30" s="37">
         <f t="shared" si="0"/>
         <v>1024.5901639344263</v>
       </c>
-      <c r="I9" s="38">
+      <c r="K30" s="32">
         <v>40434</v>
       </c>
-      <c r="J9" s="30"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="1"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="36">
+      <c r="L30" s="26"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="1"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="30">
         <v>118268</v>
       </c>
-      <c r="F10" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="43">
+      <c r="F31" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H31" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I31" s="37">
         <v>9.9500000000000001E-4</v>
       </c>
-      <c r="H10" s="43">
+      <c r="J31" s="37">
         <f t="shared" si="0"/>
         <v>1005.0251256281407</v>
       </c>
-      <c r="I10" s="38">
+      <c r="K31" s="32">
         <v>40434</v>
       </c>
-      <c r="J10" s="30"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="1"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="36">
+      <c r="L31" s="26"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="1"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="30">
         <v>118269</v>
       </c>
-      <c r="F11" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="43">
+      <c r="F32" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H32" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I32" s="37">
         <v>9.7999999999999997E-4</v>
       </c>
-      <c r="H11" s="43">
+      <c r="J32" s="37">
         <f t="shared" si="0"/>
         <v>1020.4081632653061</v>
       </c>
-      <c r="I11" s="38">
+      <c r="K32" s="32">
         <v>40434</v>
       </c>
-      <c r="J11" s="30"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="1"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="36">
+      <c r="L32" s="26"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="1"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="30">
         <v>118270</v>
       </c>
-      <c r="F12" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="43">
+      <c r="F33" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H33" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I33" s="37">
         <v>9.5399999999999999E-4</v>
       </c>
-      <c r="H12" s="43">
+      <c r="J33" s="37">
         <f t="shared" si="0"/>
         <v>1048.2180293501049</v>
       </c>
-      <c r="I12" s="38">
+      <c r="K33" s="32">
         <v>40434</v>
       </c>
-      <c r="J12" s="30"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="1"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="36">
+      <c r="L33" s="26"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="1"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="30">
         <v>118271</v>
       </c>
-      <c r="F13" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="43">
+      <c r="F34" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H34" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I34" s="37">
         <v>9.8499999999999998E-4</v>
       </c>
-      <c r="H13" s="43">
+      <c r="J34" s="37">
         <f t="shared" si="0"/>
         <v>1015.2284263959391</v>
       </c>
-      <c r="I13" s="38">
+      <c r="K34" s="32">
         <v>40434</v>
       </c>
-      <c r="J13" s="30"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="1"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="36">
+      <c r="L34" s="26"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="1"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="1"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" s="30">
         <v>118272</v>
       </c>
-      <c r="F14" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="43">
+      <c r="F35" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H35" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I35" s="37">
         <v>1.003E-3</v>
       </c>
-      <c r="H14" s="43">
+      <c r="J35" s="37">
         <f t="shared" si="0"/>
         <v>997.00897308075776</v>
       </c>
-      <c r="I14" s="38">
+      <c r="K35" s="32">
         <v>40434</v>
       </c>
-      <c r="J14" s="30"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="1"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="36">
-        <v>106120</v>
-      </c>
-      <c r="F15" s="36" t="s">
+      <c r="L35" s="26"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="1"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="43">
-        <v>1.026E-3</v>
-      </c>
-      <c r="H15" s="43">
-        <f t="shared" ref="H15:H33" si="1">1/G15</f>
-        <v>974.65886939571146</v>
-      </c>
-      <c r="I15" s="38">
-        <v>40070</v>
-      </c>
-      <c r="J15" s="30"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="1"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="36">
-        <v>106121</v>
-      </c>
-      <c r="F16" s="36" t="s">
+      <c r="E36" s="30">
+        <v>140581</v>
+      </c>
+      <c r="F36" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H36" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I36" s="37">
+        <v>1.077E-3</v>
+      </c>
+      <c r="J36" s="37">
+        <f t="shared" si="0"/>
+        <v>928.50510677808722</v>
+      </c>
+      <c r="K36" s="32">
+        <v>40947</v>
+      </c>
+      <c r="L36" s="26"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="1"/>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="1"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="G16" s="43">
-        <v>1.0070000000000001E-3</v>
-      </c>
-      <c r="H16" s="43">
+      <c r="E37" s="30">
+        <v>140582</v>
+      </c>
+      <c r="F37" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H37" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I37" s="37">
+        <v>1.077E-3</v>
+      </c>
+      <c r="J37" s="37">
+        <f t="shared" si="0"/>
+        <v>928.50510677808722</v>
+      </c>
+      <c r="K37" s="32">
+        <v>40947</v>
+      </c>
+      <c r="L37" s="26"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="1"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="30">
+        <v>140593</v>
+      </c>
+      <c r="F38" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H38" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I38" s="37">
+        <v>1.039E-3</v>
+      </c>
+      <c r="J38" s="37">
+        <f t="shared" si="0"/>
+        <v>962.46390760346492</v>
+      </c>
+      <c r="K38" s="32">
+        <v>40946</v>
+      </c>
+      <c r="L38" s="26"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="1"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" s="30">
+        <v>140594</v>
+      </c>
+      <c r="F39" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H39" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I39" s="37">
+        <v>1.0629999999999999E-3</v>
+      </c>
+      <c r="J39" s="37">
+        <f t="shared" si="0"/>
+        <v>940.73377234242719</v>
+      </c>
+      <c r="K39" s="32">
+        <v>40946</v>
+      </c>
+      <c r="L39" s="26"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="1"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" s="30">
+        <v>140595</v>
+      </c>
+      <c r="F40" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G40" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H40" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I40" s="37">
+        <v>1.0380000000000001E-3</v>
+      </c>
+      <c r="J40" s="37">
+        <f t="shared" si="0"/>
+        <v>963.39113680154139</v>
+      </c>
+      <c r="K40" s="32">
+        <v>40946</v>
+      </c>
+      <c r="L40" s="26"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="1"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" s="30">
+        <v>140596</v>
+      </c>
+      <c r="F41" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G41" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H41" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I41" s="37">
+        <v>1.075E-3</v>
+      </c>
+      <c r="J41" s="37">
+        <f t="shared" si="0"/>
+        <v>930.23255813953483</v>
+      </c>
+      <c r="K41" s="32">
+        <v>40946</v>
+      </c>
+      <c r="L41" s="26"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="1"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E42" s="30">
+        <v>140597</v>
+      </c>
+      <c r="F42" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G42" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H42" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I42" s="37">
+        <v>1.1050000000000001E-3</v>
+      </c>
+      <c r="J42" s="37">
+        <f t="shared" si="0"/>
+        <v>904.97737556561083</v>
+      </c>
+      <c r="K42" s="32">
+        <v>40946</v>
+      </c>
+      <c r="L42" s="26"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="1"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43" s="30">
+        <v>140598</v>
+      </c>
+      <c r="F43" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G43" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H43" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I43" s="37">
+        <v>1.073E-3</v>
+      </c>
+      <c r="J43" s="37">
+        <f t="shared" si="0"/>
+        <v>931.96644920782853</v>
+      </c>
+      <c r="K43" s="32">
+        <v>40946</v>
+      </c>
+      <c r="L43" s="26"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="1"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44" s="30">
+        <v>140599</v>
+      </c>
+      <c r="F44" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G44" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H44" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I44" s="37">
+        <v>1.0640000000000001E-3</v>
+      </c>
+      <c r="J44" s="37">
+        <f t="shared" si="0"/>
+        <v>939.84962406015029</v>
+      </c>
+      <c r="K44" s="32">
+        <v>40946</v>
+      </c>
+      <c r="L44" s="26"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="1"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E45" s="30">
+        <v>140600</v>
+      </c>
+      <c r="F45" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G45" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H45" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I45" s="37">
+        <v>1.0809999999999999E-3</v>
+      </c>
+      <c r="J45" s="37">
+        <f t="shared" si="0"/>
+        <v>925.06938020351538</v>
+      </c>
+      <c r="K45" s="32">
+        <v>40946</v>
+      </c>
+      <c r="L45" s="26"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="1"/>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="1"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E46" s="30">
+        <v>156866</v>
+      </c>
+      <c r="F46" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G46" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H46" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I46" s="37">
+        <v>9.7400000000000004E-3</v>
+      </c>
+      <c r="J46" s="37">
+        <f t="shared" si="0"/>
+        <v>102.6694045174538</v>
+      </c>
+      <c r="K46" s="32">
+        <v>41353</v>
+      </c>
+      <c r="L46" s="26"/>
+      <c r="M46" s="13"/>
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="1"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="E47" s="30">
+        <v>156867</v>
+      </c>
+      <c r="F47" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G47" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H47" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I47" s="37">
+        <v>1.009E-2</v>
+      </c>
+      <c r="J47" s="37">
+        <f t="shared" si="0"/>
+        <v>99.108027750247771</v>
+      </c>
+      <c r="K47" s="32">
+        <v>41353</v>
+      </c>
+      <c r="L47" s="26"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="1"/>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="1"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="E48" s="30">
+        <v>156868</v>
+      </c>
+      <c r="F48" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G48" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H48" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I48" s="37">
+        <v>1.0149999999999999E-2</v>
+      </c>
+      <c r="J48" s="30">
+        <f t="shared" si="0"/>
+        <v>98.52216748768474</v>
+      </c>
+      <c r="K48" s="32">
+        <v>41353</v>
+      </c>
+      <c r="L48" s="26"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="1"/>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" s="1"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D49" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="E49" s="30">
+        <v>157269</v>
+      </c>
+      <c r="F49" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G49" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H49" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I49" s="37">
+        <v>1.0659999999999999E-2</v>
+      </c>
+      <c r="J49" s="37">
+        <f t="shared" si="0"/>
+        <v>93.808630393996253</v>
+      </c>
+      <c r="K49" s="32">
+        <v>41353</v>
+      </c>
+      <c r="L49" s="26"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="1"/>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" s="1"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="E50" s="30">
+        <v>157270</v>
+      </c>
+      <c r="F50" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G50" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H50" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I50" s="37">
+        <v>1.034E-2</v>
+      </c>
+      <c r="J50" s="37">
+        <f t="shared" si="0"/>
+        <v>96.71179883945841</v>
+      </c>
+      <c r="K50" s="32">
+        <v>41353</v>
+      </c>
+      <c r="L50" s="26"/>
+      <c r="M50" s="13"/>
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" s="1"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D51" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="E51" s="30">
+        <v>157295</v>
+      </c>
+      <c r="F51" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G51" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H51" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I51" s="37">
+        <v>1.0059999999999999E-2</v>
+      </c>
+      <c r="J51" s="61">
+        <f t="shared" si="0"/>
+        <v>99.40357852882704</v>
+      </c>
+      <c r="K51" s="32">
+        <v>41353</v>
+      </c>
+      <c r="L51" s="26"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" s="1"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="E52" s="30">
+        <v>157297</v>
+      </c>
+      <c r="F52" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G52" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H52" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I52" s="37">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="J52" s="37">
+        <f t="shared" si="0"/>
+        <v>98.039215686274503</v>
+      </c>
+      <c r="K52" s="32">
+        <v>41353</v>
+      </c>
+      <c r="L52" s="26"/>
+      <c r="M52" s="13"/>
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" s="1"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D53" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="E53" s="30">
+        <v>157298</v>
+      </c>
+      <c r="F53" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G53" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H53" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I53" s="37">
+        <v>9.9600000000000001E-3</v>
+      </c>
+      <c r="J53" s="37">
+        <f t="shared" si="0"/>
+        <v>100.40160642570281</v>
+      </c>
+      <c r="K53" s="32">
+        <v>41353</v>
+      </c>
+      <c r="L53" s="26"/>
+      <c r="M53" s="13"/>
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="1"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D54" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="E54" s="30">
+        <v>157302</v>
+      </c>
+      <c r="F54" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G54" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H54" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I54" s="37">
+        <v>1.0359999999999999E-2</v>
+      </c>
+      <c r="J54" s="37">
+        <f t="shared" si="0"/>
+        <v>96.525096525096529</v>
+      </c>
+      <c r="K54" s="32">
+        <v>41353</v>
+      </c>
+      <c r="L54" s="26"/>
+      <c r="M54" s="13"/>
+      <c r="N54" s="1"/>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="1"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D55" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="E55" s="30">
+        <v>157303</v>
+      </c>
+      <c r="F55" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G55" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H55" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I55" s="37">
+        <v>9.8200000000000006E-3</v>
+      </c>
+      <c r="J55" s="37">
+        <f t="shared" si="0"/>
+        <v>101.83299389002036</v>
+      </c>
+      <c r="K55" s="32">
+        <v>41353</v>
+      </c>
+      <c r="L55" s="26"/>
+      <c r="M55" s="13"/>
+      <c r="N55" s="1"/>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="1"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D56" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="E56" s="30">
+        <v>157307</v>
+      </c>
+      <c r="F56" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G56" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H56" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I56" s="37">
+        <v>1.0410000000000001E-2</v>
+      </c>
+      <c r="J56" s="37">
+        <f t="shared" si="0"/>
+        <v>96.061479346781937</v>
+      </c>
+      <c r="K56" s="32">
+        <v>41353</v>
+      </c>
+      <c r="L56" s="26"/>
+      <c r="M56" s="13"/>
+      <c r="N56" s="1"/>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" s="1"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D57" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="E57" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="F57" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G57" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H57" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I57" s="37">
+        <v>9.9799999999999997E-4</v>
+      </c>
+      <c r="J57" s="37">
+        <f t="shared" si="0"/>
+        <v>1002.0040080160321</v>
+      </c>
+      <c r="K57" s="32">
+        <v>41905</v>
+      </c>
+      <c r="L57" s="26"/>
+      <c r="M57" s="13"/>
+      <c r="N57" s="1"/>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="1"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D58" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="E58" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="F58" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G58" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H58" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I58" s="37">
+        <v>9.5699999999999995E-4</v>
+      </c>
+      <c r="J58" s="37">
+        <f t="shared" si="0"/>
+        <v>1044.9320794148382</v>
+      </c>
+      <c r="K58" s="32">
+        <v>41905</v>
+      </c>
+      <c r="L58" s="26"/>
+      <c r="M58" s="13"/>
+      <c r="N58" s="1"/>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" s="1"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D59" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="E59" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="F59" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G59" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H59" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I59" s="37">
+        <v>1.0300000000000001E-3</v>
+      </c>
+      <c r="J59" s="37">
+        <f t="shared" si="0"/>
+        <v>970.87378640776694</v>
+      </c>
+      <c r="K59" s="32">
+        <v>41905</v>
+      </c>
+      <c r="L59" s="26"/>
+      <c r="M59" s="13"/>
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" s="1"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D60" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="E60" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="F60" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G60" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H60" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I60" s="37">
+        <v>9.8900000000000008E-4</v>
+      </c>
+      <c r="J60" s="37">
+        <f t="shared" si="0"/>
+        <v>1011.1223458038422</v>
+      </c>
+      <c r="K60" s="32">
+        <v>41907</v>
+      </c>
+      <c r="L60" s="26"/>
+      <c r="M60" s="13"/>
+      <c r="N60" s="1"/>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" s="1"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D61" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="E61" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="F61" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G61" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H61" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I61" s="37">
+        <v>9.9299999999999996E-4</v>
+      </c>
+      <c r="J61" s="37">
+        <f t="shared" si="0"/>
+        <v>1007.0493454179256</v>
+      </c>
+      <c r="K61" s="32">
+        <v>41907</v>
+      </c>
+      <c r="L61" s="26"/>
+      <c r="M61" s="13"/>
+      <c r="N61" s="1"/>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" s="1"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D62" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="E62" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="F62" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G62" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H62" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I62" s="37">
+        <v>1.016E-3</v>
+      </c>
+      <c r="J62" s="37">
+        <f t="shared" si="0"/>
+        <v>984.25196850393706</v>
+      </c>
+      <c r="K62" s="32">
+        <v>41907</v>
+      </c>
+      <c r="L62" s="26"/>
+      <c r="M62" s="13"/>
+      <c r="N62" s="1"/>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" s="1"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D63" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="E63" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="F63" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G63" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H63" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I63" s="37">
+        <v>1.016E-3</v>
+      </c>
+      <c r="J63" s="37">
+        <f t="shared" si="0"/>
+        <v>984.25196850393706</v>
+      </c>
+      <c r="K63" s="32">
+        <v>41907</v>
+      </c>
+      <c r="L63" s="26"/>
+      <c r="M63" s="13"/>
+      <c r="N63" s="1"/>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" s="1"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D64" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="E64" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="F64" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G64" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H64" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I64" s="37">
+        <v>1.0269999999999999E-3</v>
+      </c>
+      <c r="J64" s="37">
+        <f t="shared" si="0"/>
+        <v>973.70983446932826</v>
+      </c>
+      <c r="K64" s="32">
+        <v>41907</v>
+      </c>
+      <c r="L64" s="26"/>
+      <c r="M64" s="13"/>
+      <c r="N64" s="1"/>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" s="1"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D65" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="E65" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="F65" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G65" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H65" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I65" s="37">
+        <v>1.011E-3</v>
+      </c>
+      <c r="J65" s="37">
+        <f t="shared" si="0"/>
+        <v>989.11968348170137</v>
+      </c>
+      <c r="K65" s="32">
+        <v>41907</v>
+      </c>
+      <c r="L65" s="26"/>
+      <c r="M65" s="13"/>
+      <c r="N65" s="1"/>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" s="1"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D66" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="E66" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="F66" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G66" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H66" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I66" s="37">
+        <v>9.68E-4</v>
+      </c>
+      <c r="J66" s="37">
+        <f t="shared" si="0"/>
+        <v>1033.0578512396694</v>
+      </c>
+      <c r="K66" s="32">
+        <v>41907</v>
+      </c>
+      <c r="L66" s="26"/>
+      <c r="M66" s="13"/>
+      <c r="N66" s="1"/>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" s="1"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D67" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="E67" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="F67" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G67" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H67" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I67" s="37">
+        <v>1.0549999999999999E-3</v>
+      </c>
+      <c r="J67" s="37">
+        <f t="shared" si="0"/>
+        <v>947.8672985781991</v>
+      </c>
+      <c r="K67" s="32">
+        <v>41907</v>
+      </c>
+      <c r="L67" s="26"/>
+      <c r="M67" s="13"/>
+      <c r="N67" s="1"/>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" s="1"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D68" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="E68" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="F68" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G68" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H68" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I68" s="37">
+        <v>1.0399999999999999E-3</v>
+      </c>
+      <c r="J68" s="37">
+        <f t="shared" ref="J68:J87" si="1">1/I68</f>
+        <v>961.53846153846166</v>
+      </c>
+      <c r="K68" s="32">
+        <v>41907</v>
+      </c>
+      <c r="L68" s="26"/>
+      <c r="M68" s="13"/>
+      <c r="N68" s="1"/>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" s="1"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D69" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="E69" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="F69" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G69" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H69" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I69" s="37">
+        <v>1.06E-3</v>
+      </c>
+      <c r="J69" s="37">
         <f t="shared" si="1"/>
-        <v>993.04865938430976</v>
-      </c>
-      <c r="I16" s="38">
-        <v>40070</v>
-      </c>
-      <c r="J16" s="30"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="1"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="36">
-        <v>106122</v>
-      </c>
-      <c r="F17" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="43">
-        <v>9.7900000000000005E-4</v>
-      </c>
-      <c r="H17" s="43">
+        <v>943.39622641509436</v>
+      </c>
+      <c r="K69" s="32">
+        <v>41907</v>
+      </c>
+      <c r="L69" s="26"/>
+      <c r="M69" s="13"/>
+      <c r="N69" s="1"/>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" s="1"/>
+      <c r="B70" s="25"/>
+      <c r="C70" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D70" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="E70" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="F70" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G70" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H70" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I70" s="37">
+        <v>1.024E-3</v>
+      </c>
+      <c r="J70" s="37">
         <f t="shared" si="1"/>
-        <v>1021.4504596527067</v>
-      </c>
-      <c r="I17" s="38">
-        <v>40070</v>
-      </c>
-      <c r="J17" s="30"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="1"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="36">
-        <v>24016</v>
-      </c>
-      <c r="F18" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" s="43">
-        <f>0.00948/9.81</f>
-        <v>9.6636085626911311E-4</v>
-      </c>
-      <c r="H18" s="43">
+        <v>976.5625</v>
+      </c>
+      <c r="K70" s="32">
+        <v>41907</v>
+      </c>
+      <c r="L70" s="26"/>
+      <c r="M70" s="13"/>
+      <c r="N70" s="1"/>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" s="1"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D71" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="E71" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="F71" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G71" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H71" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I71" s="37">
+        <v>1.0250000000000001E-3</v>
+      </c>
+      <c r="J71" s="37">
         <f t="shared" si="1"/>
-        <v>1034.8101265822786</v>
-      </c>
-      <c r="I18" s="38">
-        <v>36683</v>
-      </c>
-      <c r="J18" s="30"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="1"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="36">
-        <v>27329</v>
-      </c>
-      <c r="F19" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="43">
-        <f>0.00981/9.81</f>
-        <v>9.999999999999998E-4</v>
-      </c>
-      <c r="H19" s="43">
+        <v>975.60975609756088</v>
+      </c>
+      <c r="K71" s="32">
+        <v>41907</v>
+      </c>
+      <c r="L71" s="26"/>
+      <c r="M71" s="13"/>
+      <c r="N71" s="1"/>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" s="1"/>
+      <c r="B72" s="25"/>
+      <c r="C72" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D72" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="E72" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="F72" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G72" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H72" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I72" s="37">
+        <v>9.3599999999999998E-4</v>
+      </c>
+      <c r="J72" s="37">
         <f t="shared" si="1"/>
-        <v>1000.0000000000002</v>
-      </c>
-      <c r="I19" s="38">
-        <v>36872</v>
-      </c>
-      <c r="J19" s="30"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="1"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="36">
-        <v>78795</v>
-      </c>
-      <c r="F20" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="G20" s="43">
+        <v>1068.3760683760684</v>
+      </c>
+      <c r="K72" s="32">
+        <v>41907</v>
+      </c>
+      <c r="L72" s="26"/>
+      <c r="M72" s="13"/>
+      <c r="N72" s="1"/>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" s="1"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D73" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="E73" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="F73" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G73" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H73" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I73" s="37">
+        <v>9.4899999999999997E-4</v>
+      </c>
+      <c r="J73" s="37">
+        <f t="shared" si="1"/>
+        <v>1053.7407797681772</v>
+      </c>
+      <c r="K73" s="32">
+        <v>41907</v>
+      </c>
+      <c r="L73" s="26"/>
+      <c r="M73" s="13"/>
+      <c r="N73" s="1"/>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" s="1"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D74" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="E74" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="F74" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G74" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H74" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I74" s="37">
+        <v>9.4399999999999996E-4</v>
+      </c>
+      <c r="J74" s="37">
+        <f t="shared" si="1"/>
+        <v>1059.3220338983051</v>
+      </c>
+      <c r="K74" s="32">
+        <v>41907</v>
+      </c>
+      <c r="L74" s="26"/>
+      <c r="M74" s="13"/>
+      <c r="N74" s="1"/>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" s="1"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D75" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="E75" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="F75" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G75" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H75" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I75" s="37">
+        <v>9.9599999999999992E-4</v>
+      </c>
+      <c r="J75" s="37">
+        <f t="shared" si="1"/>
+        <v>1004.0160642570282</v>
+      </c>
+      <c r="K75" s="32">
+        <v>41907</v>
+      </c>
+      <c r="L75" s="26"/>
+      <c r="M75" s="13"/>
+      <c r="N75" s="1"/>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" s="1"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D76" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="E76" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="F76" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G76" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H76" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I76" s="37">
+        <v>1.0399999999999999E-3</v>
+      </c>
+      <c r="J76" s="37">
+        <f t="shared" si="1"/>
+        <v>961.53846153846166</v>
+      </c>
+      <c r="K76" s="32">
+        <v>41907</v>
+      </c>
+      <c r="L76" s="26"/>
+      <c r="M76" s="13"/>
+      <c r="N76" s="1"/>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77" s="1"/>
+      <c r="B77" s="25"/>
+      <c r="C77" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D77" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="E77" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="F77" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G77" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H77" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I77" s="37">
+        <v>9.5799999999999998E-4</v>
+      </c>
+      <c r="J77" s="37">
+        <f t="shared" si="1"/>
+        <v>1043.8413361169103</v>
+      </c>
+      <c r="K77" s="32">
+        <v>41907</v>
+      </c>
+      <c r="L77" s="26"/>
+      <c r="M77" s="13"/>
+      <c r="N77" s="1"/>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78" s="1"/>
+      <c r="B78" s="25"/>
+      <c r="C78" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D78" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="E78" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="F78" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G78" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H78" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I78" s="37">
+        <v>9.2900000000000003E-4</v>
+      </c>
+      <c r="J78" s="37">
+        <f t="shared" si="1"/>
+        <v>1076.4262648008612</v>
+      </c>
+      <c r="K78" s="32">
+        <v>41907</v>
+      </c>
+      <c r="L78" s="26"/>
+      <c r="M78" s="13"/>
+      <c r="N78" s="1"/>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79" s="1"/>
+      <c r="B79" s="25"/>
+      <c r="C79" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D79" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="E79" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="F79" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G79" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H79" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I79" s="37">
+        <v>9.5799999999999998E-4</v>
+      </c>
+      <c r="J79" s="37">
+        <f t="shared" si="1"/>
+        <v>1043.8413361169103</v>
+      </c>
+      <c r="K79" s="32">
+        <v>41907</v>
+      </c>
+      <c r="L79" s="26"/>
+      <c r="M79" s="13"/>
+      <c r="N79" s="1"/>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80" s="1"/>
+      <c r="B80" s="25"/>
+      <c r="C80" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D80" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="E80" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="F80" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G80" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H80" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I80" s="37">
+        <v>9.9700000000000006E-4</v>
+      </c>
+      <c r="J80" s="37">
+        <f t="shared" si="1"/>
+        <v>1003.0090270812436</v>
+      </c>
+      <c r="K80" s="32">
+        <v>41907</v>
+      </c>
+      <c r="L80" s="26"/>
+      <c r="M80" s="13"/>
+      <c r="N80" s="1"/>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="A81" s="1"/>
+      <c r="B81" s="25"/>
+      <c r="C81" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D81" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="E81" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="F81" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G81" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H81" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I81" s="37">
+        <v>9.8799999999999995E-4</v>
+      </c>
+      <c r="J81" s="37">
+        <f t="shared" si="1"/>
+        <v>1012.1457489878543</v>
+      </c>
+      <c r="K81" s="32">
+        <v>41907</v>
+      </c>
+      <c r="L81" s="26"/>
+      <c r="M81" s="13"/>
+      <c r="N81" s="1"/>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82" s="1"/>
+      <c r="B82" s="25"/>
+      <c r="C82" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D82" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="E82" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="F82" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G82" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H82" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I82" s="37">
+        <v>9.4399999999999996E-4</v>
+      </c>
+      <c r="J82" s="37">
+        <f t="shared" si="1"/>
+        <v>1059.3220338983051</v>
+      </c>
+      <c r="K82" s="32">
+        <v>41907</v>
+      </c>
+      <c r="L82" s="26"/>
+      <c r="M82" s="13"/>
+      <c r="N82" s="1"/>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83" s="1"/>
+      <c r="B83" s="25"/>
+      <c r="C83" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D83" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="E83" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="F83" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G83" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H83" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I83" s="37">
         <v>1.008E-3</v>
       </c>
-      <c r="H20" s="43">
+      <c r="J83" s="37">
         <f t="shared" si="1"/>
         <v>992.06349206349205</v>
       </c>
-      <c r="I20" s="38">
-        <v>39066</v>
-      </c>
-      <c r="J20" s="30"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="1"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="36">
-        <v>97281</v>
-      </c>
-      <c r="F21" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" s="43">
-        <v>9.6900000000000003E-4</v>
-      </c>
-      <c r="H21" s="43">
+      <c r="K83" s="32">
+        <v>41907</v>
+      </c>
+      <c r="L83" s="26"/>
+      <c r="M83" s="13"/>
+      <c r="N83" s="1"/>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84" s="1"/>
+      <c r="B84" s="25"/>
+      <c r="C84" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D84" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="E84" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="F84" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G84" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H84" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I84" s="37">
+        <v>1.0449999999999999E-3</v>
+      </c>
+      <c r="J84" s="37">
         <f t="shared" si="1"/>
-        <v>1031.9917440660474</v>
-      </c>
-      <c r="I21" s="38">
-        <v>39695</v>
-      </c>
-      <c r="J21" s="30"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="1"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="36">
-        <v>97282</v>
-      </c>
-      <c r="F22" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="G22" s="43">
-        <v>9.6900000000000003E-4</v>
-      </c>
-      <c r="H22" s="43">
+        <v>956.93779904306223</v>
+      </c>
+      <c r="K84" s="32">
+        <v>41907</v>
+      </c>
+      <c r="L84" s="26"/>
+      <c r="M84" s="13"/>
+      <c r="N84" s="1"/>
+    </row>
+    <row r="85" spans="1:14">
+      <c r="A85" s="1"/>
+      <c r="B85" s="25"/>
+      <c r="C85" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D85" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="E85" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="F85" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G85" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H85" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I85" s="37">
+        <v>9.9200000000000004E-4</v>
+      </c>
+      <c r="J85" s="37">
         <f t="shared" si="1"/>
-        <v>1031.9917440660474</v>
-      </c>
-      <c r="I22" s="38">
-        <v>39695</v>
-      </c>
-      <c r="J22" s="30"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="1"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="E23" s="36">
-        <v>14468</v>
-      </c>
-      <c r="F23" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" s="43">
-        <f>0.1035/9.81</f>
-        <v>1.0550458715596329E-2</v>
-      </c>
-      <c r="H23" s="43">
+        <v>1008.0645161290322</v>
+      </c>
+      <c r="K85" s="32">
+        <v>41907</v>
+      </c>
+      <c r="L85" s="26"/>
+      <c r="M85" s="13"/>
+      <c r="N85" s="1"/>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="A86" s="1"/>
+      <c r="B86" s="25"/>
+      <c r="C86" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D86" s="62" t="s">
+        <v>183</v>
+      </c>
+      <c r="E86" s="62" t="s">
+        <v>213</v>
+      </c>
+      <c r="F86" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="G86" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="H86" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="I86" s="63">
+        <v>9.8900000000000008E-4</v>
+      </c>
+      <c r="J86" s="63">
         <f t="shared" si="1"/>
-        <v>94.782608695652186</v>
-      </c>
-      <c r="I23" s="38">
-        <v>36717</v>
-      </c>
-      <c r="J23" s="30"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="1"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="E24" s="36">
-        <v>14469</v>
-      </c>
-      <c r="F24" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="G24" s="43">
-        <f>0.1016/9.81</f>
-        <v>1.0356778797145768E-2</v>
-      </c>
-      <c r="H24" s="43">
+        <v>1011.1223458038422</v>
+      </c>
+      <c r="K86" s="64">
+        <v>41907</v>
+      </c>
+      <c r="L86" s="26"/>
+      <c r="M86" s="13"/>
+      <c r="N86" s="1"/>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="A87" s="1"/>
+      <c r="B87" s="25"/>
+      <c r="C87" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D87" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="E87" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F87" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G87" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="H87" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="I87" s="65">
+        <v>1</v>
+      </c>
+      <c r="J87" s="65">
         <f t="shared" si="1"/>
-        <v>96.555118110236236</v>
-      </c>
-      <c r="I24" s="38">
-        <v>36717</v>
-      </c>
-      <c r="J24" s="30"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="1"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="1"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="E25" s="36">
-        <v>14470</v>
-      </c>
-      <c r="F25" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="G25" s="43">
-        <f>0.0999/9.81</f>
-        <v>1.0183486238532109E-2</v>
-      </c>
-      <c r="H25" s="43">
-        <f t="shared" si="1"/>
-        <v>98.198198198198213</v>
-      </c>
-      <c r="I25" s="38">
-        <v>36717</v>
-      </c>
-      <c r="J25" s="30"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="1"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="E26" s="36">
-        <v>25156</v>
-      </c>
-      <c r="F26" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="G26" s="43">
-        <v>1.0290000000000001E-2</v>
-      </c>
-      <c r="H26" s="43">
-        <f t="shared" si="1"/>
-        <v>97.181729834791057</v>
-      </c>
-      <c r="I26" s="38">
-        <v>38024</v>
-      </c>
-      <c r="J26" s="30"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="1"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="E27" s="36">
-        <v>25157</v>
-      </c>
-      <c r="F27" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="G27" s="43">
-        <v>1.1010000000000001E-2</v>
-      </c>
-      <c r="H27" s="43">
-        <f t="shared" si="1"/>
-        <v>90.826521344232503</v>
-      </c>
-      <c r="I27" s="38">
-        <v>38024</v>
-      </c>
-      <c r="J27" s="30"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="1"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="E28" s="36">
-        <v>25158</v>
-      </c>
-      <c r="F28" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="G28" s="43">
-        <v>1.017E-2</v>
-      </c>
-      <c r="H28" s="43">
-        <f t="shared" si="1"/>
-        <v>98.328416912487711</v>
-      </c>
-      <c r="I28" s="38">
-        <v>38024</v>
-      </c>
-      <c r="J28" s="30"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="1"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="1"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="E29" s="36">
-        <v>25159</v>
-      </c>
-      <c r="F29" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="G29" s="43">
-        <v>1.0970000000000001E-2</v>
-      </c>
-      <c r="H29" s="43">
-        <f t="shared" si="1"/>
-        <v>91.157702825888776</v>
-      </c>
-      <c r="I29" s="38">
-        <v>38024</v>
-      </c>
-      <c r="J29" s="30"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="1"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="1"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30" s="36">
-        <v>8203</v>
-      </c>
-      <c r="E30" s="36">
-        <v>10023</v>
-      </c>
-      <c r="F30" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="G30" s="43">
-        <v>3.32E-2</v>
-      </c>
-      <c r="H30" s="43">
-        <f t="shared" si="1"/>
-        <v>30.120481927710841</v>
-      </c>
-      <c r="I30" s="38">
-        <v>37027</v>
-      </c>
-      <c r="J30" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="K30" s="14"/>
-      <c r="L30" s="1"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="1"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" s="36">
-        <v>8203</v>
-      </c>
-      <c r="E31" s="36">
-        <v>10083</v>
-      </c>
-      <c r="F31" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="G31" s="43">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="H31" s="43">
-        <f t="shared" si="1"/>
-        <v>30.303030303030301</v>
-      </c>
-      <c r="I31" s="38">
-        <v>37602</v>
-      </c>
-      <c r="J31" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="K31" s="14"/>
-      <c r="L31" s="1"/>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="1"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32" s="36">
-        <v>8203</v>
-      </c>
-      <c r="E32" s="36">
-        <v>10275</v>
-      </c>
-      <c r="F32" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="G32" s="43">
-        <v>2.9690000000000001E-2</v>
-      </c>
-      <c r="H32" s="43">
-        <f t="shared" si="1"/>
-        <v>33.68137420006736</v>
-      </c>
-      <c r="I32" s="38">
-        <v>40450</v>
-      </c>
-      <c r="J32" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="K32" s="14"/>
-      <c r="L32" s="1"/>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="1"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="36">
-        <v>8203</v>
-      </c>
-      <c r="E33" s="36">
-        <v>10139</v>
-      </c>
-      <c r="F33" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="G33" s="43">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="H33" s="43">
-        <f t="shared" si="1"/>
-        <v>34.482758620689651</v>
-      </c>
-      <c r="I33" s="38">
-        <v>40450</v>
-      </c>
-      <c r="J33" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="K33" s="14"/>
-      <c r="L33" s="1"/>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="1"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="1"/>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="1"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="1"/>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="19"/>
-      <c r="B38" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K87" s="66" t="s">
+        <v>215</v>
+      </c>
+      <c r="L87" s="27"/>
+      <c r="M87" s="13"/>
+      <c r="N87" s="1"/>
+    </row>
+    <row r="88" spans="1:14">
+      <c r="A88" s="1"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="34"/>
+      <c r="J88" s="34"/>
+      <c r="K88" s="8"/>
+      <c r="L88" s="8"/>
+      <c r="M88" s="14"/>
+      <c r="N88" s="1"/>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="33"/>
+      <c r="J89" s="33"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+    </row>
+    <row r="90" spans="1:14">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="33"/>
+      <c r="J90" s="33"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+    </row>
+    <row r="91" spans="1:14">
+      <c r="A91" s="16"/>
+      <c r="B91" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="10"/>
-      <c r="B39" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="10"/>
-      <c r="B40" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="10"/>
-      <c r="B41" s="27" t="s">
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="35"/>
+      <c r="J91" s="35"/>
+      <c r="K91" s="6"/>
+      <c r="L91" s="6"/>
+      <c r="M91" s="6"/>
+      <c r="N91" s="6"/>
+    </row>
+    <row r="92" spans="1:14">
+      <c r="A92" s="10"/>
+      <c r="B92" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C92" s="15"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="15"/>
+      <c r="H92" s="15"/>
+      <c r="I92" s="36"/>
+      <c r="J92" s="36"/>
+      <c r="K92" s="15"/>
+      <c r="L92" s="15"/>
+      <c r="M92" s="15"/>
+      <c r="N92" s="15"/>
+    </row>
+    <row r="93" spans="1:14">
+      <c r="A93" s="10"/>
+      <c r="B93" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C93" s="15"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="15"/>
+      <c r="H93" s="15"/>
+      <c r="I93" s="36"/>
+      <c r="J93" s="36"/>
+      <c r="K93" s="15"/>
+      <c r="L93" s="15"/>
+      <c r="M93" s="15"/>
+      <c r="N93" s="15"/>
+    </row>
+    <row r="94" spans="1:14">
+      <c r="A94" s="10"/>
+      <c r="B94" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C94" s="24"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="24"/>
+      <c r="F94" s="24"/>
+      <c r="G94" s="24"/>
+      <c r="H94" s="24"/>
+      <c r="I94" s="36"/>
+      <c r="J94" s="36"/>
+      <c r="K94" s="15"/>
+      <c r="L94" s="15"/>
+      <c r="M94" s="15"/>
+      <c r="N94" s="15"/>
+    </row>
+    <row r="95" spans="1:14">
+      <c r="A95" s="10"/>
+      <c r="B95" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C95" s="24"/>
+      <c r="D95" s="24"/>
+      <c r="E95" s="24"/>
+      <c r="F95" s="24"/>
+      <c r="G95" s="24"/>
+      <c r="H95" s="24"/>
+      <c r="I95" s="36"/>
+      <c r="J95" s="36"/>
+      <c r="K95" s="15"/>
+      <c r="L95" s="15"/>
+      <c r="M95" s="15"/>
+      <c r="N95" s="15"/>
+    </row>
+    <row r="96" spans="1:14">
+      <c r="A96" s="10"/>
+      <c r="B96" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C96" s="24"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="24"/>
+      <c r="F96" s="24"/>
+      <c r="G96" s="24"/>
+      <c r="H96" s="24"/>
+      <c r="I96" s="36"/>
+      <c r="J96" s="36"/>
+      <c r="K96" s="15"/>
+      <c r="L96" s="15"/>
+      <c r="M96" s="15"/>
+      <c r="N96" s="15"/>
+    </row>
+    <row r="97" spans="1:14">
+      <c r="A97" s="11"/>
+      <c r="B97" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="18"/>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="10"/>
-      <c r="B42" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18"/>
-      <c r="L42" s="18"/>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="10"/>
-      <c r="B43" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="18"/>
-      <c r="L43" s="18"/>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="12"/>
-      <c r="B44" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-    </row>
-    <row r="54" spans="10:10">
-      <c r="J54" s="32"/>
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c r="H97" s="8"/>
+      <c r="I97" s="34"/>
+      <c r="J97" s="34"/>
+      <c r="K97" s="8"/>
+      <c r="L97" s="8"/>
+      <c r="M97" s="8"/>
+      <c r="N97" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -4453,9 +7138,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -4464,7 +7149,7 @@
     <col min="4" max="4" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4474,57 +7159,69 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="18.75">
+    <row r="2" spans="1:17" ht="18.75">
       <c r="A2" s="1"/>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="20"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="17.25">
+    <row r="3" spans="1:17" ht="17.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="52" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
+      <c r="C3" s="17"/>
+      <c r="D3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.25">
+      <c r="J3" t="s">
+        <v>169</v>
+      </c>
+      <c r="M3" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="17.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="52" t="s">
-        <v>130</v>
-      </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
+      <c r="B4" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="J4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:17">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -4533,68 +7230,71 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="N6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1"/>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:17">
       <c r="A8" s="1"/>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:17">
       <c r="A9" s="1"/>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:17">
       <c r="A10" s="1"/>
-      <c r="B10" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
+      <c r="B10" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:17">
       <c r="A11" s="1"/>
-      <c r="B11" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
+      <c r="B11" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:17">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -4603,6 +7303,48 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="D14" s="59" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="C16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" s="59" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5">
+      <c r="C17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5">
+      <c r="C18" t="s">
+        <v>138</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5">
+      <c r="C19" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" s="59" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5">
+      <c r="E22" s="59" t="s">
+        <v>143</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -4614,7 +7356,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
@@ -4633,114 +7375,114 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="L1" s="23">
+      <c r="L1" s="20">
         <v>1</v>
       </c>
-      <c r="M1" s="23" t="s">
-        <v>30</v>
+      <c r="M1" s="20" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="18.75">
       <c r="A2" s="1"/>
-      <c r="B2" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
+      <c r="B2" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
       <c r="J2" s="1"/>
-      <c r="L2" s="23">
+      <c r="L2" s="20">
         <v>2</v>
       </c>
-      <c r="M2" s="23" t="s">
-        <v>31</v>
+      <c r="M2" s="20" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="17.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="F3" s="67" t="s">
-        <v>123</v>
-      </c>
-      <c r="G3" s="67"/>
-      <c r="H3" s="66">
+      <c r="B3" s="68" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="F3" s="68" t="s">
+        <v>110</v>
+      </c>
+      <c r="G3" s="68"/>
+      <c r="H3" s="55">
         <v>0.05</v>
       </c>
-      <c r="I3" s="20"/>
+      <c r="I3" s="17"/>
       <c r="J3" s="1"/>
-      <c r="L3" s="23">
+      <c r="L3" s="20">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="17.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="22">
-        <v>3</v>
-      </c>
-      <c r="F4" s="67" t="s">
-        <v>124</v>
-      </c>
-      <c r="G4" s="67"/>
-      <c r="H4" s="66">
+      <c r="B4" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="19">
+        <v>4</v>
+      </c>
+      <c r="F4" s="68" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4" s="68"/>
+      <c r="H4" s="55">
         <v>10</v>
       </c>
-      <c r="I4" s="20"/>
+      <c r="I4" s="17"/>
       <c r="J4" s="1"/>
-      <c r="L4" s="23">
+      <c r="L4" s="20">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="17.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="67" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="22">
+      <c r="B5" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="19">
         <v>1</v>
       </c>
-      <c r="F5" s="67" t="s">
-        <v>128</v>
-      </c>
-      <c r="G5" s="67"/>
-      <c r="H5" s="66">
+      <c r="F5" s="68" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5" s="68"/>
+      <c r="H5" s="55">
         <v>350</v>
       </c>
-      <c r="I5" s="20"/>
+      <c r="I5" s="17"/>
       <c r="J5" s="1"/>
-      <c r="L5" s="23">
+      <c r="L5" s="20">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
       <c r="J6" s="1"/>
-      <c r="L6" s="23">
+      <c r="L6" s="20">
         <v>6</v>
       </c>
     </row>
@@ -4755,135 +7497,135 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="L7" s="23">
+      <c r="L7" s="20">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1"/>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
       <c r="J8" s="1"/>
-      <c r="L8" s="23">
+      <c r="L8" s="20">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1"/>
-      <c r="B9" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
+      <c r="B9" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
       <c r="J9" s="1"/>
-      <c r="L9" s="23">
+      <c r="L9" s="20">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1"/>
-      <c r="B10" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
+      <c r="B10" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
       <c r="J10" s="1"/>
-      <c r="L10" s="23">
+      <c r="L10" s="20">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1"/>
-      <c r="B11" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
+      <c r="B11" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
       <c r="J11" s="1"/>
-      <c r="L11" s="23"/>
+      <c r="L11" s="20"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1"/>
-      <c r="B12" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
+      <c r="B12" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
       <c r="J12" s="1"/>
-      <c r="L12" s="23"/>
+      <c r="L12" s="20"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1"/>
-      <c r="B13" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
+      <c r="B13" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
       <c r="J13" s="1"/>
-      <c r="L13" s="23"/>
+      <c r="L13" s="20"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1"/>
-      <c r="B14" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
+      <c r="B14" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
       <c r="J14" s="1"/>
-      <c r="L14" s="23"/>
+      <c r="L14" s="20"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1"/>
-      <c r="B15" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
+      <c r="B15" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
       <c r="J15" s="1"/>
-      <c r="L15" s="23"/>
+      <c r="L15" s="20"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1"/>
@@ -4896,7 +7638,12 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="L16" s="23"/>
+      <c r="L16" s="20"/>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="19" t="s">
+        <v>133</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4924,15 +7671,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J11"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4943,158 +7693,249 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" ht="18.75">
+      <c r="L1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="18.75">
       <c r="A2" s="1"/>
-      <c r="B2" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22">
-        <v>1</v>
-      </c>
-      <c r="I2" s="20"/>
+      <c r="B2" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
       <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" ht="17.25">
+      <c r="L2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="17.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
+      <c r="B3" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3" s="68"/>
+      <c r="H3" s="58">
+        <v>2</v>
+      </c>
+      <c r="I3" s="17"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="17.25">
+    <row r="4" spans="1:12" ht="17.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="67" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="25">
+      <c r="B4" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" ht="17.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="68" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="22">
         <v>2</v>
       </c>
-      <c r="F4" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
+      <c r="F5" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:12" ht="17.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="B6" s="68" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="22">
+        <v>0.05</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:12">
       <c r="A7" s="1"/>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1"/>
+      <c r="B9" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1"/>
-      <c r="B8" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1"/>
-      <c r="B9" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:12">
       <c r="A10" s="1"/>
-      <c r="B10" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
+      <c r="B10" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:12">
       <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="B11" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
       <c r="J11" s="1"/>
     </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1"/>
+      <c r="B12" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1"/>
+      <c r="B13" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1"/>
+      <c r="B14" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="1"/>
+      <c r="B15" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
     <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3">
+      <formula1>$L$1:$L$2</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5103,7 +7944,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5125,46 +7966,46 @@
     </row>
     <row r="2" spans="1:10" ht="18.75">
       <c r="A2" s="1"/>
-      <c r="B2" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
+      <c r="B2" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1"/>
-      <c r="B3" s="67" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="25">
+      <c r="B3" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="22">
         <v>120</v>
       </c>
-      <c r="F3" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
+      <c r="F3" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10">

--- a/measure_types/nidaq/xls/test1.xlsx
+++ b/measure_types/nidaq/xls/test1.xlsx
@@ -1541,7 +1541,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1653,11 +1653,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1820,6 +1833,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2122,7 +2144,7 @@
   <dimension ref="A1:W51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3621,7 +3643,7 @@
       <c r="I40" s="40">
         <v>10</v>
       </c>
-      <c r="J40" s="44">
+      <c r="J40" s="67">
         <v>4497</v>
       </c>
       <c r="K40" s="67" t="s">
@@ -3707,29 +3729,29 @@
       <c r="B43" s="25" t="s">
         <v>233</v>
       </c>
-      <c r="C43" s="40"/>
-      <c r="D43" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="E43" s="44" t="s">
+      <c r="C43" s="68"/>
+      <c r="D43" s="69" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="F43" s="44">
+      <c r="F43" s="69">
         <v>10</v>
       </c>
-      <c r="G43" s="44" t="s">
+      <c r="G43" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="H43" s="44" t="s">
+      <c r="H43" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="I43" s="40">
+      <c r="I43" s="68">
         <v>11</v>
       </c>
-      <c r="J43" s="44">
+      <c r="J43" s="69">
         <v>4497</v>
       </c>
-      <c r="K43" s="48" t="s">
+      <c r="K43" s="70" t="s">
         <v>235</v>
       </c>
       <c r="L43" s="13"/>
@@ -7404,18 +7426,18 @@
     </row>
     <row r="3" spans="1:13" ht="17.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
       <c r="E3" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="F3" s="68" t="s">
+      <c r="F3" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="G3" s="68"/>
+      <c r="G3" s="71"/>
       <c r="H3" s="55">
         <v>0.05</v>
       </c>
@@ -7427,18 +7449,18 @@
     </row>
     <row r="4" spans="1:13" ht="17.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
       <c r="E4" s="19">
         <v>4</v>
       </c>
-      <c r="F4" s="68" t="s">
+      <c r="F4" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="G4" s="68"/>
+      <c r="G4" s="71"/>
       <c r="H4" s="55">
         <v>10</v>
       </c>
@@ -7450,18 +7472,18 @@
     </row>
     <row r="5" spans="1:13" ht="17.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
       <c r="E5" s="19">
         <v>1</v>
       </c>
-      <c r="F5" s="68" t="s">
+      <c r="F5" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="G5" s="68"/>
+      <c r="G5" s="71"/>
       <c r="H5" s="55">
         <v>350</v>
       </c>
@@ -7716,18 +7738,18 @@
     </row>
     <row r="3" spans="1:12" ht="17.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
       <c r="E3" s="56" t="s">
         <v>123</v>
       </c>
-      <c r="F3" s="68" t="s">
+      <c r="F3" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="G3" s="68"/>
+      <c r="G3" s="71"/>
       <c r="H3" s="58">
         <v>2</v>
       </c>
@@ -7736,11 +7758,11 @@
     </row>
     <row r="4" spans="1:12" ht="17.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
       <c r="E4" s="57" t="s">
         <v>132</v>
       </c>
@@ -7752,11 +7774,11 @@
     </row>
     <row r="5" spans="1:12" ht="17.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
       <c r="E5" s="22">
         <v>2</v>
       </c>
@@ -7770,11 +7792,11 @@
     </row>
     <row r="6" spans="1:12" ht="17.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="71" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
       <c r="E6" s="22">
         <v>0.05</v>
       </c>
@@ -7980,11 +8002,11 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1"/>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
       <c r="E3" s="22">
         <v>120</v>
       </c>
